--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807A170C-D49A-4FCC-9B3D-A1EBD62D1293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5893B1-CFF1-4FB2-B512-5147B37E03D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>Stuhl</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>Speicherort</t>
+  </si>
+  <si>
+    <t>FiM</t>
+  </si>
+  <si>
+    <t>First in men</t>
+  </si>
+  <si>
+    <t>MoA</t>
+  </si>
+  <si>
+    <t>mode of action</t>
   </si>
 </sst>
 </file>
@@ -406,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,6 +475,30 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5893B1-CFF1-4FB2-B512-5147B37E03D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC557E9A-1305-4E88-9413-148C616CF031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -66,13 +66,31 @@
     <t>FiM</t>
   </si>
   <si>
-    <t>First in men</t>
-  </si>
-  <si>
     <t>MoA</t>
   </si>
   <si>
     <t>mode of action</t>
+  </si>
+  <si>
+    <t>hose</t>
+  </si>
+  <si>
+    <t>Schlauch</t>
+  </si>
+  <si>
+    <t>FiH</t>
+  </si>
+  <si>
+    <t>first in human</t>
+  </si>
+  <si>
+    <t>first in men</t>
+  </si>
+  <si>
+    <t>NPC</t>
+  </si>
+  <si>
+    <t>NTC portfolio comitee</t>
   </si>
 </sst>
 </file>
@@ -424,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,15 +506,39 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC557E9A-1305-4E88-9413-148C616CF031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E12CB1C-850D-443C-A724-F956E75B0CA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -91,6 +91,78 @@
   </si>
   <si>
     <t>NTC portfolio comitee</t>
+  </si>
+  <si>
+    <t>start of development</t>
+  </si>
+  <si>
+    <t>SoD</t>
+  </si>
+  <si>
+    <t>integral membrane protein</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>SST</t>
+  </si>
+  <si>
+    <t>strategic scientific topic</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>design time period</t>
+  </si>
+  <si>
+    <t>iViVE</t>
+  </si>
+  <si>
+    <t>in vitro in vivo exposure</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>once daily</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>twice daily</t>
+  </si>
+  <si>
+    <t>AUCinf</t>
+  </si>
+  <si>
+    <t>area under the curve extrapolated to infinity</t>
+  </si>
+  <si>
+    <t>PPB</t>
+  </si>
+  <si>
+    <t>plasma protein binding</t>
+  </si>
+  <si>
+    <t>MoLM</t>
+  </si>
+  <si>
+    <t>mouse liver microsomes</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>human liver microsomes</t>
+  </si>
+  <si>
+    <t>MbI</t>
+  </si>
+  <si>
+    <t>mechanismus based inhibition</t>
   </si>
 </sst>
 </file>
@@ -442,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,6 +613,102 @@
         <v>21</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E12CB1C-850D-443C-A724-F956E75B0CA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37446C1C-6380-4B34-8015-9EE18BDAF048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="329">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -163,6 +163,855 @@
   </si>
   <si>
     <t>mechanismus based inhibition</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>candidate selection</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>research target profile</t>
+  </si>
+  <si>
+    <t>CDAA-model</t>
+  </si>
+  <si>
+    <t>choline-deficient amino acid model</t>
+  </si>
+  <si>
+    <t>iTox</t>
+  </si>
+  <si>
+    <t>investigative Tox</t>
+  </si>
+  <si>
+    <t>eTox</t>
+  </si>
+  <si>
+    <t>exploratory Tox</t>
+  </si>
+  <si>
+    <t>CD45</t>
+  </si>
+  <si>
+    <t>inflammation biomarker</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>TIMP1</t>
+  </si>
+  <si>
+    <t>fibrosis biomarker</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>Entzündung</t>
+  </si>
+  <si>
+    <t>ECM</t>
+  </si>
+  <si>
+    <t>Extrazelluläre Matrix</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>hepatic stellate cell</t>
+  </si>
+  <si>
+    <t>HepG2</t>
+  </si>
+  <si>
+    <t>humane Leberkrebszellen</t>
+  </si>
+  <si>
+    <t>PAMPA</t>
+  </si>
+  <si>
+    <t>Parallel Artificial Membran Permeability assay</t>
+  </si>
+  <si>
+    <t>THT assay</t>
+  </si>
+  <si>
+    <t>Aggregationsassay</t>
+  </si>
+  <si>
+    <t>DLS</t>
+  </si>
+  <si>
+    <t>Aggregationsassy (dynamic light scattering)</t>
+  </si>
+  <si>
+    <t>NDS</t>
+  </si>
+  <si>
+    <t>non clinical drug safety</t>
+  </si>
+  <si>
+    <t>hERG</t>
+  </si>
+  <si>
+    <t>human Ether-a-go-go-Related Gene</t>
+  </si>
+  <si>
+    <t>cKD</t>
+  </si>
+  <si>
+    <t>chronical kidney disease</t>
+  </si>
+  <si>
+    <t>UUO model</t>
+  </si>
+  <si>
+    <t>unilateral ureteral obstruction model</t>
+  </si>
+  <si>
+    <t>PoC</t>
+  </si>
+  <si>
+    <t>proof of concept</t>
+  </si>
+  <si>
+    <t>KD AAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knock down adenoassociated virus </t>
+  </si>
+  <si>
+    <t>OE AAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">over expression adenoassociated virus </t>
+  </si>
+  <si>
+    <t>pitfall</t>
+  </si>
+  <si>
+    <t>Fallstrick</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>wertgeschätzt</t>
+  </si>
+  <si>
+    <t>TSA</t>
+  </si>
+  <si>
+    <t>target safety assesment</t>
+  </si>
+  <si>
+    <t>PBPK</t>
+  </si>
+  <si>
+    <t>Plasma-Protein Binding Pharmakinetik</t>
+  </si>
+  <si>
+    <t>KBDD</t>
+  </si>
+  <si>
+    <t>knowledge based drug design</t>
+  </si>
+  <si>
+    <t>SBDD</t>
+  </si>
+  <si>
+    <t>structure based drug design</t>
+  </si>
+  <si>
+    <t>FiC</t>
+  </si>
+  <si>
+    <t>first in class</t>
+  </si>
+  <si>
+    <t>FiI</t>
+  </si>
+  <si>
+    <t>first in indication</t>
+  </si>
+  <si>
+    <t>exposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiegel der Substanz am Wirkungsort </t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>Syndecan1</t>
+  </si>
+  <si>
+    <t>direktes Substrat für MMP7</t>
+  </si>
+  <si>
+    <t>PHH assay</t>
+  </si>
+  <si>
+    <t>Primary human hepatocyt health assay</t>
+  </si>
+  <si>
+    <t>DDI</t>
+  </si>
+  <si>
+    <t>drug drug interaction</t>
+  </si>
+  <si>
+    <t>ADME</t>
+  </si>
+  <si>
+    <t>adsorption, distribution, metabolism, excretion</t>
+  </si>
+  <si>
+    <t>excretion</t>
+  </si>
+  <si>
+    <t>Ausscheidung</t>
+  </si>
+  <si>
+    <t>pancreas</t>
+  </si>
+  <si>
+    <t>Bauchspeicheldrüse</t>
+  </si>
+  <si>
+    <t>intestine</t>
+  </si>
+  <si>
+    <t>Darm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small intestin </t>
+  </si>
+  <si>
+    <t>Dünndarm</t>
+  </si>
+  <si>
+    <t>large intestin</t>
+  </si>
+  <si>
+    <t>Dickdarm</t>
+  </si>
+  <si>
+    <t>gall bladder</t>
+  </si>
+  <si>
+    <t>Gallenblase</t>
+  </si>
+  <si>
+    <t>urinary bladder</t>
+  </si>
+  <si>
+    <t>Harnblase</t>
+  </si>
+  <si>
+    <t>bone marrow</t>
+  </si>
+  <si>
+    <t>Knochenmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spleen </t>
+  </si>
+  <si>
+    <t>Milz</t>
+  </si>
+  <si>
+    <t>lymph nodes</t>
+  </si>
+  <si>
+    <t>Lymphknoten</t>
+  </si>
+  <si>
+    <t>larynx</t>
+  </si>
+  <si>
+    <t>Kehlkopf</t>
+  </si>
+  <si>
+    <t>pharynx</t>
+  </si>
+  <si>
+    <t>Rachen</t>
+  </si>
+  <si>
+    <t>appendix</t>
+  </si>
+  <si>
+    <t>Blinddarm</t>
+  </si>
+  <si>
+    <t>ureter</t>
+  </si>
+  <si>
+    <t>Harnleiter</t>
+  </si>
+  <si>
+    <t>urethra</t>
+  </si>
+  <si>
+    <t>Harnröhre</t>
+  </si>
+  <si>
+    <t>esophagus</t>
+  </si>
+  <si>
+    <t>Speiseröhre</t>
+  </si>
+  <si>
+    <t>trachea</t>
+  </si>
+  <si>
+    <t>Luftröhre</t>
+  </si>
+  <si>
+    <t>thyroid gland</t>
+  </si>
+  <si>
+    <t>Schilddrüse</t>
+  </si>
+  <si>
+    <t>ovaries</t>
+  </si>
+  <si>
+    <t>Eierstöcke</t>
+  </si>
+  <si>
+    <t>testes</t>
+  </si>
+  <si>
+    <t>Hoden</t>
+  </si>
+  <si>
+    <t>abdomen</t>
+  </si>
+  <si>
+    <t>PPF</t>
+  </si>
+  <si>
+    <t>progressive pulmonary fibrosis</t>
+  </si>
+  <si>
+    <t>accelerated</t>
+  </si>
+  <si>
+    <t>beschleunigt</t>
+  </si>
+  <si>
+    <t>iViVC</t>
+  </si>
+  <si>
+    <t>in virto in vivo correlation</t>
+  </si>
+  <si>
+    <t>RPR</t>
+  </si>
+  <si>
+    <t>research project report</t>
+  </si>
+  <si>
+    <t>T4P</t>
+  </si>
+  <si>
+    <t>Translation for patients</t>
+  </si>
+  <si>
+    <t>Anxiety disorder</t>
+  </si>
+  <si>
+    <t>Angststörung</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>structure activity relationsship</t>
+  </si>
+  <si>
+    <t>PAM</t>
+  </si>
+  <si>
+    <t>positiver allosterischer Modulator</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>negativer allosterischer Modulator</t>
+  </si>
+  <si>
+    <t>D-Score</t>
+  </si>
+  <si>
+    <t>drugable score</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>intelecture property (geistiges Eigentum)</t>
+  </si>
+  <si>
+    <t>novelty</t>
+  </si>
+  <si>
+    <t>Neuheit</t>
+  </si>
+  <si>
+    <t>superiority</t>
+  </si>
+  <si>
+    <t>Überlegenheit</t>
+  </si>
+  <si>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>maximum tolerated dose</t>
+  </si>
+  <si>
+    <t>eAT</t>
+  </si>
+  <si>
+    <t>early Asset Team</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>active pharmaceutical ingredient</t>
+  </si>
+  <si>
+    <t>DRF</t>
+  </si>
+  <si>
+    <t>dose range finding</t>
+  </si>
+  <si>
+    <t>MuM assesment</t>
+  </si>
+  <si>
+    <t>mutagenic metabolie assesment</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>single rising dose</t>
+  </si>
+  <si>
+    <t>MRD</t>
+  </si>
+  <si>
+    <t>multi rising dose</t>
+  </si>
+  <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>Fluorescence-Activated Cell Sorting</t>
+  </si>
+  <si>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharid</t>
+  </si>
+  <si>
+    <t>WHA</t>
+  </si>
+  <si>
+    <t>whole blood assay</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>Variationskoeffizient</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>geomean</t>
+  </si>
+  <si>
+    <t>geometrischer Mittelwert</t>
+  </si>
+  <si>
+    <t>eIUPC</t>
+  </si>
+  <si>
+    <t>early innovation unit portfolio committee</t>
+  </si>
+  <si>
+    <t>innovation unit portfolio committee</t>
+  </si>
+  <si>
+    <t>SoCG</t>
+  </si>
+  <si>
+    <t>Start of celline generation</t>
+  </si>
+  <si>
+    <t>DRLC</t>
+  </si>
+  <si>
+    <t>division research leadership committee</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>protein protein interaction</t>
+  </si>
+  <si>
+    <t>MGD</t>
+  </si>
+  <si>
+    <t>molecular glue degrader</t>
+  </si>
+  <si>
+    <t>nanoDSF</t>
+  </si>
+  <si>
+    <t>nano Differential Scanning Fluorimetry</t>
+  </si>
+  <si>
+    <t>TAA</t>
+  </si>
+  <si>
+    <t>Thioacetamid</t>
+  </si>
+  <si>
+    <t>OSR</t>
+  </si>
+  <si>
+    <t>overall success rate</t>
+  </si>
+  <si>
+    <t>CDP's</t>
+  </si>
+  <si>
+    <t>clinical development projects</t>
+  </si>
+  <si>
+    <t>LoA</t>
+  </si>
+  <si>
+    <t>level of approvel</t>
+  </si>
+  <si>
+    <t>FtO</t>
+  </si>
+  <si>
+    <t>freedom to operate</t>
+  </si>
+  <si>
+    <t>PDD</t>
+  </si>
+  <si>
+    <t>phenotypic drug discovery</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>target drug discovery</t>
+  </si>
+  <si>
+    <t>GPCR</t>
+  </si>
+  <si>
+    <t>G-proein coupled receptor</t>
+  </si>
+  <si>
+    <t>Emax</t>
+  </si>
+  <si>
+    <t>efficacy</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>silent allosteric modulator</t>
+  </si>
+  <si>
+    <t>thermal shift assay</t>
+  </si>
+  <si>
+    <t>SPR</t>
+  </si>
+  <si>
+    <t>surface plasmon reonance</t>
+  </si>
+  <si>
+    <t>TRPV's</t>
+  </si>
+  <si>
+    <t>Transient Receptor Potential Vanilloid channels</t>
+  </si>
+  <si>
+    <t>TM receptor</t>
+  </si>
+  <si>
+    <t>transmembraner Rezeptor</t>
+  </si>
+  <si>
+    <t>FBS</t>
+  </si>
+  <si>
+    <t>fragment base screen</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>DNA encoated library</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>molecular dynamics</t>
+  </si>
+  <si>
+    <t>HiP</t>
+  </si>
+  <si>
+    <t>hit identification phase</t>
+  </si>
+  <si>
+    <t>Flipr-assay</t>
+  </si>
+  <si>
+    <t>fluorescence image plate reader assay</t>
+  </si>
+  <si>
+    <t>BI Fire</t>
+  </si>
+  <si>
+    <t>BI finding iniative and rational exploration</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>ligand efficacy</t>
+  </si>
+  <si>
+    <t>LLE / LipE</t>
+  </si>
+  <si>
+    <t>lipophilic ligand efficacy</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>polar surface area</t>
+  </si>
+  <si>
+    <t>PDS</t>
+  </si>
+  <si>
+    <t>partial deck screen</t>
+  </si>
+  <si>
+    <t>MPO</t>
+  </si>
+  <si>
+    <t>multi parameter optimisation</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>virtual screen</t>
+  </si>
+  <si>
+    <t>ASMS</t>
+  </si>
+  <si>
+    <t>affinity selective MS</t>
+  </si>
+  <si>
+    <t>fDH</t>
+  </si>
+  <si>
+    <t>free drug hyphothesis</t>
+  </si>
+  <si>
+    <t>MDCK assay</t>
+  </si>
+  <si>
+    <t>madin-darby canine kidney</t>
+  </si>
+  <si>
+    <t>close to</t>
+  </si>
+  <si>
+    <t>in der Nähe von</t>
+  </si>
+  <si>
+    <t>states in germany</t>
+  </si>
+  <si>
+    <t>Bundesländer</t>
+  </si>
+  <si>
+    <t>new year's resolution</t>
+  </si>
+  <si>
+    <t>Neujahresvorsatz</t>
+  </si>
+  <si>
+    <t>fasting</t>
+  </si>
+  <si>
+    <t>fasten</t>
+  </si>
+  <si>
+    <t>ash Wednesday</t>
+  </si>
+  <si>
+    <t>Aschermittwoch</t>
+  </si>
+  <si>
+    <t>electric toothbrush</t>
+  </si>
+  <si>
+    <t>elektrische Zahnbürste</t>
+  </si>
+  <si>
+    <t>reliable</t>
+  </si>
+  <si>
+    <t>zuverlässig</t>
+  </si>
+  <si>
+    <t>when I turned 18</t>
+  </si>
+  <si>
+    <t>als ich 18 wurde</t>
+  </si>
+  <si>
+    <t>godfather</t>
+  </si>
+  <si>
+    <t>patenonkel</t>
+  </si>
+  <si>
+    <t>godmother</t>
+  </si>
+  <si>
+    <t>patentante</t>
+  </si>
+  <si>
+    <t>crucial</t>
+  </si>
+  <si>
+    <t>entscheidend</t>
+  </si>
+  <si>
+    <t>herbal remedies</t>
+  </si>
+  <si>
+    <t>Kräuterheilmischungen</t>
+  </si>
+  <si>
+    <t>sophisticated</t>
+  </si>
+  <si>
+    <t>anspruchsvoll</t>
+  </si>
+  <si>
+    <t>superstition</t>
+  </si>
+  <si>
+    <t>Aberglaube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">morbidity rate </t>
+  </si>
+  <si>
+    <t>Erkrankungsrate</t>
+  </si>
+  <si>
+    <t>mortality rates</t>
+  </si>
+  <si>
+    <t>Sterblichkeitsrate</t>
+  </si>
+  <si>
+    <t>extinguish</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire suppression system </t>
+  </si>
+  <si>
+    <t>Feuerlöschanlage</t>
+  </si>
+  <si>
+    <t>on purpose</t>
+  </si>
+  <si>
+    <t>mit Absicht</t>
+  </si>
+  <si>
+    <t>equipped</t>
+  </si>
+  <si>
+    <t>ausgestattet</t>
+  </si>
+  <si>
+    <t>moiety</t>
+  </si>
+  <si>
+    <t>Struktureinheit</t>
+  </si>
+  <si>
+    <t>DILI</t>
+  </si>
+  <si>
+    <t>drug induced liver insurance</t>
+  </si>
+  <si>
+    <t>hMDM</t>
+  </si>
+  <si>
+    <t>human monocyte-derived macrophages</t>
+  </si>
+  <si>
+    <t>hWBA</t>
+  </si>
+  <si>
+    <t>human whole blood assay</t>
+  </si>
+  <si>
+    <t>chemotaxis</t>
+  </si>
+  <si>
+    <t>gerichtete Bewegung von Zellen entlang eines Konzentratuionsgradienten</t>
   </si>
 </sst>
 </file>
@@ -514,14 +1363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,6 +1559,1166 @@
         <v>45</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>195</v>
+      </c>
+      <c r="B100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="B101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>203</v>
+      </c>
+      <c r="B104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>209</v>
+      </c>
+      <c r="B107" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>212</v>
+      </c>
+      <c r="B109" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>214</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>216</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>218</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>224</v>
+      </c>
+      <c r="B115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>232</v>
+      </c>
+      <c r="B119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>236</v>
+      </c>
+      <c r="B121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>93</v>
+      </c>
+      <c r="B124" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37446C1C-6380-4B34-8015-9EE18BDAF048}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B240E9A-C7F7-4073-AF69-65DBDCDE17D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,36 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="321">
   <si>
     <t>Bezeichnung</t>
   </si>
   <si>
     <t>Bedeutung</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>Haus</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>Tisch</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>Stuhl</t>
   </si>
   <si>
     <t>repository</t>
@@ -1363,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,31 +1372,31 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1428,12 +1404,12 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -1441,7 +1417,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1449,10 +1425,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1465,18 +1441,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,39 +1556,39 @@
         <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -1780,39 +1756,39 @@
         <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1980,39 +1956,39 @@
         <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" t="s">
         <v>150</v>
-      </c>
-      <c r="B77" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" t="s">
         <v>152</v>
-      </c>
-      <c r="B78" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
         <v>154</v>
-      </c>
-      <c r="B79" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
         <v>156</v>
-      </c>
-      <c r="B80" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2201,39 +2177,39 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
         <v>203</v>
-      </c>
-      <c r="B104" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
         <v>205</v>
-      </c>
-      <c r="B105" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
         <v>207</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" t="s">
         <v>209</v>
-      </c>
-      <c r="B107" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B108" t="s">
         <v>211</v>
@@ -2329,39 +2305,39 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>85</v>
+      </c>
+      <c r="B120" t="s">
         <v>234</v>
-      </c>
-      <c r="B120" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" t="s">
         <v>236</v>
-      </c>
-      <c r="B121" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" t="s">
         <v>238</v>
-      </c>
-      <c r="B122" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" t="s">
         <v>240</v>
-      </c>
-      <c r="B123" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s">
         <v>242</v>
@@ -2681,42 +2657,10 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>321</v>
+        <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>323</v>
-      </c>
-      <c r="B165" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>325</v>
-      </c>
-      <c r="B166" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>327</v>
-      </c>
-      <c r="B167" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>46</v>
-      </c>
-      <c r="B168" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B240E9A-C7F7-4073-AF69-65DBDCDE17D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74ED718-B1D8-4CB9-A653-29AF79838494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="343">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -60,15 +60,9 @@
     <t>first in human</t>
   </si>
   <si>
-    <t>first in men</t>
-  </si>
-  <si>
     <t>NPC</t>
   </si>
   <si>
-    <t>NTC portfolio comitee</t>
-  </si>
-  <si>
     <t>start of development</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>CDAA-model</t>
   </si>
   <si>
-    <t>choline-deficient amino acid model</t>
-  </si>
-  <si>
     <t>iTox</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>ECM</t>
   </si>
   <si>
-    <t>Extrazelluläre Matrix</t>
-  </si>
-  <si>
     <t>HSC</t>
   </si>
   <si>
@@ -213,21 +201,12 @@
     <t>PAMPA</t>
   </si>
   <si>
-    <t>Parallel Artificial Membran Permeability assay</t>
-  </si>
-  <si>
     <t>THT assay</t>
   </si>
   <si>
-    <t>Aggregationsassay</t>
-  </si>
-  <si>
     <t>DLS</t>
   </si>
   <si>
-    <t>Aggregationsassy (dynamic light scattering)</t>
-  </si>
-  <si>
     <t>NDS</t>
   </si>
   <si>
@@ -237,9 +216,6 @@
     <t>hERG</t>
   </si>
   <si>
-    <t>human Ether-a-go-go-Related Gene</t>
-  </si>
-  <si>
     <t>cKD</t>
   </si>
   <si>
@@ -276,12 +252,6 @@
     <t>Fallstrick</t>
   </si>
   <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>wertgeschätzt</t>
-  </si>
-  <si>
     <t>TSA</t>
   </si>
   <si>
@@ -291,9 +261,6 @@
     <t>PBPK</t>
   </si>
   <si>
-    <t>Plasma-Protein Binding Pharmakinetik</t>
-  </si>
-  <si>
     <t>KBDD</t>
   </si>
   <si>
@@ -321,9 +288,6 @@
     <t>exposure</t>
   </si>
   <si>
-    <t xml:space="preserve">Spiegel der Substanz am Wirkungsort </t>
-  </si>
-  <si>
     <t>SMA</t>
   </si>
   <si>
@@ -336,9 +300,6 @@
     <t>PHH assay</t>
   </si>
   <si>
-    <t>Primary human hepatocyt health assay</t>
-  </si>
-  <si>
     <t>DDI</t>
   </si>
   <si>
@@ -480,12 +441,6 @@
     <t>progressive pulmonary fibrosis</t>
   </si>
   <si>
-    <t>accelerated</t>
-  </si>
-  <si>
-    <t>beschleunigt</t>
-  </si>
-  <si>
     <t>iViVC</t>
   </si>
   <si>
@@ -519,15 +474,9 @@
     <t>PAM</t>
   </si>
   <si>
-    <t>positiver allosterischer Modulator</t>
-  </si>
-  <si>
     <t>NAM</t>
   </si>
   <si>
-    <t>negativer allosterischer Modulator</t>
-  </si>
-  <si>
     <t>D-Score</t>
   </si>
   <si>
@@ -537,9 +486,6 @@
     <t>IP</t>
   </si>
   <si>
-    <t>intelecture property (geistiges Eigentum)</t>
-  </si>
-  <si>
     <t>novelty</t>
   </si>
   <si>
@@ -606,9 +552,6 @@
     <t>Lipopolysaccharid</t>
   </si>
   <si>
-    <t>WHA</t>
-  </si>
-  <si>
     <t>whole blood assay</t>
   </si>
   <si>
@@ -681,9 +624,6 @@
     <t>overall success rate</t>
   </si>
   <si>
-    <t>CDP's</t>
-  </si>
-  <si>
     <t>clinical development projects</t>
   </si>
   <si>
@@ -714,9 +654,6 @@
     <t>GPCR</t>
   </si>
   <si>
-    <t>G-proein coupled receptor</t>
-  </si>
-  <si>
     <t>Emax</t>
   </si>
   <si>
@@ -774,9 +711,6 @@
     <t>hit identification phase</t>
   </si>
   <si>
-    <t>Flipr-assay</t>
-  </si>
-  <si>
     <t>fluorescence image plate reader assay</t>
   </si>
   <si>
@@ -852,9 +786,6 @@
     <t>Bundesländer</t>
   </si>
   <si>
-    <t>new year's resolution</t>
-  </si>
-  <si>
     <t>Neujahresvorsatz</t>
   </si>
   <si>
@@ -876,12 +807,6 @@
     <t>elektrische Zahnbürste</t>
   </si>
   <si>
-    <t>reliable</t>
-  </si>
-  <si>
-    <t>zuverlässig</t>
-  </si>
-  <si>
     <t>when I turned 18</t>
   </si>
   <si>
@@ -912,12 +837,6 @@
     <t>Kräuterheilmischungen</t>
   </si>
   <si>
-    <t>sophisticated</t>
-  </si>
-  <si>
-    <t>anspruchsvoll</t>
-  </si>
-  <si>
     <t>superstition</t>
   </si>
   <si>
@@ -936,12 +855,6 @@
     <t>Sterblichkeitsrate</t>
   </si>
   <si>
-    <t>extinguish</t>
-  </si>
-  <si>
-    <t>löschen</t>
-  </si>
-  <si>
     <t xml:space="preserve">fire suppression system </t>
   </si>
   <si>
@@ -988,6 +901,159 @@
   </si>
   <si>
     <t>gerichtete Bewegung von Zellen entlang eines Konzentratuionsgradienten</t>
+  </si>
+  <si>
+    <t>to accelerate something</t>
+  </si>
+  <si>
+    <t>etwas beschleunigen</t>
+  </si>
+  <si>
+    <t>probability of success</t>
+  </si>
+  <si>
+    <t>PoS</t>
+  </si>
+  <si>
+    <t>to complement something</t>
+  </si>
+  <si>
+    <t>etwas vervollständigen</t>
+  </si>
+  <si>
+    <t>Likelihood</t>
+  </si>
+  <si>
+    <t>Wahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>Angebot</t>
+  </si>
+  <si>
+    <t>to accept something</t>
+  </si>
+  <si>
+    <t>etwas annehmen</t>
+  </si>
+  <si>
+    <t>to decline someting</t>
+  </si>
+  <si>
+    <t>etwas ablehnen</t>
+  </si>
+  <si>
+    <t>to reject someting</t>
+  </si>
+  <si>
+    <t>etwas zurückweisen</t>
+  </si>
+  <si>
+    <t>first in man</t>
+  </si>
+  <si>
+    <t>NTC portfolio committee</t>
+  </si>
+  <si>
+    <t>choline deficient amino acid model</t>
+  </si>
+  <si>
+    <t>extracellular matrix</t>
+  </si>
+  <si>
+    <t>parallel artificial membrane permeability assay</t>
+  </si>
+  <si>
+    <t>aggregation sassay</t>
+  </si>
+  <si>
+    <t>aggregation assy (dynamic light scattering)</t>
+  </si>
+  <si>
+    <t>human ether a go go related Gene</t>
+  </si>
+  <si>
+    <t>unilateral ureteral obstruction</t>
+  </si>
+  <si>
+    <t>einseitige Harnleiterverstopfung</t>
+  </si>
+  <si>
+    <t>to appreciate someone</t>
+  </si>
+  <si>
+    <t>jemand wertgeschätzten</t>
+  </si>
+  <si>
+    <t>plasma protein binding pharmacokinetik</t>
+  </si>
+  <si>
+    <t>Spiegel</t>
+  </si>
+  <si>
+    <t>primary human hepatocyt health assay</t>
+  </si>
+  <si>
+    <t>Bauch</t>
+  </si>
+  <si>
+    <t>positive allosteric modulator</t>
+  </si>
+  <si>
+    <t>negative allosteric modulator</t>
+  </si>
+  <si>
+    <t>intelecture property</t>
+  </si>
+  <si>
+    <t>WBA</t>
+  </si>
+  <si>
+    <t>IUPC</t>
+  </si>
+  <si>
+    <t>CDPs</t>
+  </si>
+  <si>
+    <t>G proein coupled receptor</t>
+  </si>
+  <si>
+    <t>FLIPR assay</t>
+  </si>
+  <si>
+    <t>new years resolution</t>
+  </si>
+  <si>
+    <t>to be reliable</t>
+  </si>
+  <si>
+    <t>zuverlässig sein</t>
+  </si>
+  <si>
+    <t>to be sophisticated</t>
+  </si>
+  <si>
+    <t>anspruchsvoll sein</t>
+  </si>
+  <si>
+    <t>to extinguish something</t>
+  </si>
+  <si>
+    <t>etwas löschen</t>
+  </si>
+  <si>
+    <t>Magenflüssigkeit</t>
+  </si>
+  <si>
+    <t>intestinal fluid</t>
+  </si>
+  <si>
+    <t>Darmflüssigkeit</t>
+  </si>
+  <si>
+    <t>gastric fluid</t>
   </si>
 </sst>
 </file>
@@ -1339,15 +1405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1372,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1401,1269 +1467,1366 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>318</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="B120" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B122" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>39</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>36</v>
+      </c>
+      <c r="B165" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>292</v>
+      </c>
+      <c r="B166" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B167" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>296</v>
+      </c>
+      <c r="B168" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>298</v>
+      </c>
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>300</v>
+      </c>
+      <c r="B171" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>302</v>
+      </c>
+      <c r="B172" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>304</v>
+      </c>
+      <c r="B173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>306</v>
+      </c>
+      <c r="B174" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>340</v>
+      </c>
+      <c r="B176" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74ED718-B1D8-4CB9-A653-29AF79838494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D80A56-E127-444A-A82E-28966530563C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -684,9 +684,6 @@
     <t>TM receptor</t>
   </si>
   <si>
-    <t>transmembraner Rezeptor</t>
-  </si>
-  <si>
     <t>FBS</t>
   </si>
   <si>
@@ -1017,9 +1014,6 @@
     <t>CDPs</t>
   </si>
   <si>
-    <t>G proein coupled receptor</t>
-  </si>
-  <si>
     <t>FLIPR assay</t>
   </si>
   <si>
@@ -1054,6 +1048,12 @@
   </si>
   <si>
     <t>gastric fluid</t>
+  </si>
+  <si>
+    <t>G protein coupled receptor</t>
+  </si>
+  <si>
+    <t>transmembrane receptor</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
   <dimension ref="A1:B176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1590,7 +1590,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,7 +1646,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1670,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1678,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1686,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1723,10 +1723,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" t="s">
         <v>316</v>
-      </c>
-      <c r="B39" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1763,10 +1763,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" t="s">
         <v>318</v>
-      </c>
-      <c r="B44" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1782,7 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1822,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,7 +1846,7 @@
         <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2030,7 +2030,7 @@
         <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2043,10 +2043,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" t="s">
         <v>292</v>
-      </c>
-      <c r="B79" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2094,7 +2094,7 @@
         <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2102,7 +2102,7 @@
         <v>149</v>
       </c>
       <c r="B86" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,7 +2118,7 @@
         <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2211,7 +2211,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B100" t="s">
         <v>175</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
         <v>184</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
         <v>199</v>
@@ -2358,7 +2358,7 @@
         <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -2406,327 +2406,327 @@
         <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>219</v>
+      </c>
+      <c r="B125" t="s">
         <v>220</v>
-      </c>
-      <c r="B125" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>221</v>
+      </c>
+      <c r="B126" t="s">
         <v>222</v>
-      </c>
-      <c r="B126" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" t="s">
         <v>224</v>
-      </c>
-      <c r="B127" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>225</v>
+      </c>
+      <c r="B128" t="s">
         <v>226</v>
-      </c>
-      <c r="B128" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
         <v>229</v>
-      </c>
-      <c r="B130" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" t="s">
         <v>231</v>
-      </c>
-      <c r="B131" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" t="s">
         <v>233</v>
-      </c>
-      <c r="B132" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" t="s">
         <v>235</v>
-      </c>
-      <c r="B133" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" t="s">
         <v>237</v>
-      </c>
-      <c r="B134" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" t="s">
         <v>239</v>
-      </c>
-      <c r="B135" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>240</v>
+      </c>
+      <c r="B136" t="s">
         <v>241</v>
-      </c>
-      <c r="B136" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" t="s">
         <v>243</v>
-      </c>
-      <c r="B137" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
         <v>245</v>
-      </c>
-      <c r="B138" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>246</v>
+      </c>
+      <c r="B139" t="s">
         <v>247</v>
-      </c>
-      <c r="B139" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" t="s">
         <v>249</v>
-      </c>
-      <c r="B140" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
         <v>251</v>
-      </c>
-      <c r="B141" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>253</v>
+      </c>
+      <c r="B143" t="s">
         <v>254</v>
-      </c>
-      <c r="B143" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>255</v>
+      </c>
+      <c r="B144" t="s">
         <v>256</v>
-      </c>
-      <c r="B144" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>257</v>
+      </c>
+      <c r="B145" t="s">
         <v>258</v>
-      </c>
-      <c r="B145" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B146" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>259</v>
+      </c>
+      <c r="B147" t="s">
         <v>260</v>
-      </c>
-      <c r="B147" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
         <v>262</v>
-      </c>
-      <c r="B148" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
         <v>264</v>
-      </c>
-      <c r="B149" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>265</v>
+      </c>
+      <c r="B150" t="s">
         <v>266</v>
-      </c>
-      <c r="B150" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" t="s">
         <v>268</v>
-      </c>
-      <c r="B151" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B152" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" t="s">
         <v>270</v>
-      </c>
-      <c r="B153" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" t="s">
         <v>272</v>
-      </c>
-      <c r="B154" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>273</v>
+      </c>
+      <c r="B155" t="s">
         <v>274</v>
-      </c>
-      <c r="B155" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" t="s">
         <v>276</v>
-      </c>
-      <c r="B157" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
         <v>278</v>
-      </c>
-      <c r="B158" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
+        <v>279</v>
+      </c>
+      <c r="B159" t="s">
         <v>280</v>
-      </c>
-      <c r="B159" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>281</v>
+      </c>
+      <c r="B160" t="s">
         <v>282</v>
-      </c>
-      <c r="B160" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>283</v>
+      </c>
+      <c r="B161" t="s">
         <v>284</v>
-      </c>
-      <c r="B161" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>285</v>
+      </c>
+      <c r="B162" t="s">
         <v>286</v>
-      </c>
-      <c r="B162" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
+        <v>287</v>
+      </c>
+      <c r="B163" t="s">
         <v>288</v>
-      </c>
-      <c r="B163" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>289</v>
+      </c>
+      <c r="B164" t="s">
         <v>290</v>
-      </c>
-      <c r="B164" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2739,34 +2739,34 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" t="s">
         <v>292</v>
-      </c>
-      <c r="B166" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>295</v>
+      </c>
+      <c r="B168" t="s">
         <v>296</v>
-      </c>
-      <c r="B168" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>297</v>
+      </c>
+      <c r="B169" t="s">
         <v>298</v>
-      </c>
-      <c r="B169" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2779,50 +2779,50 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>299</v>
+      </c>
+      <c r="B171" t="s">
         <v>300</v>
-      </c>
-      <c r="B171" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
+        <v>301</v>
+      </c>
+      <c r="B172" t="s">
         <v>302</v>
-      </c>
-      <c r="B172" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>303</v>
+      </c>
+      <c r="B173" t="s">
         <v>304</v>
-      </c>
-      <c r="B173" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
+        <v>305</v>
+      </c>
+      <c r="B174" t="s">
         <v>306</v>
-      </c>
-      <c r="B174" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B176" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D80A56-E127-444A-A82E-28966530563C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7999677-BE07-4072-AD92-E91E427560FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="353">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -444,9 +444,6 @@
     <t>iViVC</t>
   </si>
   <si>
-    <t>in virto in vivo correlation</t>
-  </si>
-  <si>
     <t>RPR</t>
   </si>
   <si>
@@ -585,9 +582,6 @@
     <t>SoCG</t>
   </si>
   <si>
-    <t>Start of celline generation</t>
-  </si>
-  <si>
     <t>DRLC</t>
   </si>
   <si>
@@ -672,9 +666,6 @@
     <t>SPR</t>
   </si>
   <si>
-    <t>surface plasmon reonance</t>
-  </si>
-  <si>
     <t>TRPV's</t>
   </si>
   <si>
@@ -990,9 +981,6 @@
     <t>Spiegel</t>
   </si>
   <si>
-    <t>primary human hepatocyt health assay</t>
-  </si>
-  <si>
     <t>Bauch</t>
   </si>
   <si>
@@ -1054,6 +1042,48 @@
   </si>
   <si>
     <t>transmembrane receptor</t>
+  </si>
+  <si>
+    <t>primary human hepatocytes health assay</t>
+  </si>
+  <si>
+    <t>surface plasmon resonance</t>
+  </si>
+  <si>
+    <t>pERK</t>
+  </si>
+  <si>
+    <t>phosphoryliertes ERK</t>
+  </si>
+  <si>
+    <t>ERK</t>
+  </si>
+  <si>
+    <t>extracellular signal regulated kinase</t>
+  </si>
+  <si>
+    <t>PTLA</t>
+  </si>
+  <si>
+    <t>plasma trypsin like activity</t>
+  </si>
+  <si>
+    <t>TAA model</t>
+  </si>
+  <si>
+    <t>Thioacetamid model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residual workpackages </t>
+  </si>
+  <si>
+    <t>verbleibende Arbeitspakete</t>
+  </si>
+  <si>
+    <t>Start of cellline generation</t>
+  </si>
+  <si>
+    <t>in vitro in vivo correlation</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1500,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1590,7 +1620,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1646,7 +1676,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1670,7 +1700,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,7 +1708,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1716,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1702,7 +1732,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1723,10 +1753,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1763,10 +1793,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1812,7 @@
         <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1822,7 +1852,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1846,7 +1876,7 @@
         <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2030,7 +2060,7 @@
         <v>135</v>
       </c>
       <c r="B77" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2043,10 +2073,10 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B79" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2054,327 +2084,327 @@
         <v>138</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" t="s">
         <v>140</v>
-      </c>
-      <c r="B81" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" t="s">
         <v>142</v>
-      </c>
-      <c r="B82" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
         <v>144</v>
-      </c>
-      <c r="B83" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" t="s">
         <v>146</v>
-      </c>
-      <c r="B84" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" t="s">
         <v>150</v>
-      </c>
-      <c r="B87" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
         <v>153</v>
-      </c>
-      <c r="B89" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" t="s">
         <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
         <v>157</v>
-      </c>
-      <c r="B91" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
         <v>159</v>
-      </c>
-      <c r="B92" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" t="s">
         <v>161</v>
-      </c>
-      <c r="B93" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" t="s">
         <v>163</v>
-      </c>
-      <c r="B94" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" t="s">
         <v>165</v>
-      </c>
-      <c r="B95" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" t="s">
         <v>167</v>
-      </c>
-      <c r="B96" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" t="s">
         <v>169</v>
-      </c>
-      <c r="B97" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" t="s">
         <v>171</v>
-      </c>
-      <c r="B98" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" t="s">
         <v>173</v>
-      </c>
-      <c r="B99" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" t="s">
         <v>176</v>
-      </c>
-      <c r="B101" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" t="s">
         <v>178</v>
-      </c>
-      <c r="B102" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
         <v>180</v>
-      </c>
-      <c r="B103" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104" t="s">
         <v>182</v>
-      </c>
-      <c r="B104" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B106" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B118" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2382,351 +2412,351 @@
         <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B124" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B126" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B127" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B128" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B146" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B154" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B160" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2739,34 +2769,34 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B166" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2779,50 +2809,90 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B172" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B173" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B174" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B176" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>341</v>
+      </c>
+      <c r="B177" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>347</v>
+      </c>
+      <c r="B180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>349</v>
+      </c>
+      <c r="B181" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7999677-BE07-4072-AD92-E91E427560FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB71300-CFEC-421A-ACB6-979E39E3B45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="415">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -1084,6 +1084,192 @@
   </si>
   <si>
     <t>in vitro in vivo correlation</t>
+  </si>
+  <si>
+    <t>bile</t>
+  </si>
+  <si>
+    <t>Galle</t>
+  </si>
+  <si>
+    <t>resIOS</t>
+  </si>
+  <si>
+    <t>research integrated outsourcing</t>
+  </si>
+  <si>
+    <t>Interessengruppen management</t>
+  </si>
+  <si>
+    <t>SSc</t>
+  </si>
+  <si>
+    <t>Systemische Sklerose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">renale clearance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stakeholder management </t>
+  </si>
+  <si>
+    <t>Ausscheidung über die Niere</t>
+  </si>
+  <si>
+    <t>biliary clearence</t>
+  </si>
+  <si>
+    <t>Ausscheidunjg über Stuhlgang</t>
+  </si>
+  <si>
+    <t>lack of smoething</t>
+  </si>
+  <si>
+    <t>fehlen von etwas</t>
+  </si>
+  <si>
+    <t>dF4</t>
+  </si>
+  <si>
+    <t>decompensated fibrosis stage 4</t>
+  </si>
+  <si>
+    <t>IUEC</t>
+  </si>
+  <si>
+    <t>innovation unit executive committee</t>
+  </si>
+  <si>
+    <t>sarcopenia</t>
+  </si>
+  <si>
+    <t>Verlust von Muskelfunktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proximal chain </t>
+  </si>
+  <si>
+    <t>stammnahe Kette</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>offensichtlich</t>
+  </si>
+  <si>
+    <t>liabilities</t>
+  </si>
+  <si>
+    <t>Verbindlichkeiten</t>
+  </si>
+  <si>
+    <t>to be puzzeled</t>
+  </si>
+  <si>
+    <t>verwirrt sein</t>
+  </si>
+  <si>
+    <t>boarderline</t>
+  </si>
+  <si>
+    <t>Grenzwert</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>ausreichend</t>
+  </si>
+  <si>
+    <t>rigorous frameworks</t>
+  </si>
+  <si>
+    <t>strenge Rahmenbedingungen</t>
+  </si>
+  <si>
+    <t>sage</t>
+  </si>
+  <si>
+    <t>Salbei</t>
+  </si>
+  <si>
+    <t>thyme</t>
+  </si>
+  <si>
+    <t>Thymian</t>
+  </si>
+  <si>
+    <t>chamomile</t>
+  </si>
+  <si>
+    <t>Kamille</t>
+  </si>
+  <si>
+    <t>Körperflüssigkeiten</t>
+  </si>
+  <si>
+    <t>bodily humors</t>
+  </si>
+  <si>
+    <t>advocated</t>
+  </si>
+  <si>
+    <t>befürworten</t>
+  </si>
+  <si>
+    <t>Cinchona-Rinde (Chinin)</t>
+  </si>
+  <si>
+    <t>cinchona bark</t>
+  </si>
+  <si>
+    <t>tailored</t>
+  </si>
+  <si>
+    <t>maßgeschneidert</t>
+  </si>
+  <si>
+    <t>hurdles</t>
+  </si>
+  <si>
+    <t>Hürden</t>
+  </si>
+  <si>
+    <t>affordability</t>
+  </si>
+  <si>
+    <t>Erschwinglichkeit</t>
+  </si>
+  <si>
+    <t>proverb</t>
+  </si>
+  <si>
+    <t>Sprichwort</t>
+  </si>
+  <si>
+    <t>advances</t>
+  </si>
+  <si>
+    <t>Fortschritt</t>
+  </si>
+  <si>
+    <t>unsanitary conditions</t>
+  </si>
+  <si>
+    <t>schmutzige Bedingungen</t>
+  </si>
+  <si>
+    <t>plain scientific language</t>
+  </si>
+  <si>
+    <t>einfache Fachsprache</t>
+  </si>
+  <si>
+    <t>Era</t>
+  </si>
+  <si>
+    <t>Ära</t>
   </si>
 </sst>
 </file>
@@ -1435,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="K194" sqref="K194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2895,6 +3081,254 @@
         <v>350</v>
       </c>
     </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>353</v>
+      </c>
+      <c r="B182" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>361</v>
+      </c>
+      <c r="B184" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>358</v>
+      </c>
+      <c r="B185" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>363</v>
+      </c>
+      <c r="B187" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>365</v>
+      </c>
+      <c r="B188" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>367</v>
+      </c>
+      <c r="B189" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>369</v>
+      </c>
+      <c r="B190" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>371</v>
+      </c>
+      <c r="B191" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>373</v>
+      </c>
+      <c r="B192" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>375</v>
+      </c>
+      <c r="B193" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>377</v>
+      </c>
+      <c r="B194" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>379</v>
+      </c>
+      <c r="B195" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>381</v>
+      </c>
+      <c r="B196" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>383</v>
+      </c>
+      <c r="B197" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>385</v>
+      </c>
+      <c r="B198" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>387</v>
+      </c>
+      <c r="B199" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>389</v>
+      </c>
+      <c r="B200" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>391</v>
+      </c>
+      <c r="B201" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>394</v>
+      </c>
+      <c r="B202" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>398</v>
+      </c>
+      <c r="B204" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>399</v>
+      </c>
+      <c r="B205" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>401</v>
+      </c>
+      <c r="B206" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>403</v>
+      </c>
+      <c r="B207" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>405</v>
+      </c>
+      <c r="B208" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>407</v>
+      </c>
+      <c r="B209" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>409</v>
+      </c>
+      <c r="B210" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>411</v>
+      </c>
+      <c r="B211" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" t="s">
+        <v>414</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB71300-CFEC-421A-ACB6-979E39E3B45F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF7FDD9-DFF4-4C50-82E4-DE4EC2CBB6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="431">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -255,9 +255,6 @@
     <t>TSA</t>
   </si>
   <si>
-    <t>target safety assesment</t>
-  </si>
-  <si>
     <t>PBPK</t>
   </si>
   <si>
@@ -519,12 +516,6 @@
     <t>dose range finding</t>
   </si>
   <si>
-    <t>MuM assesment</t>
-  </si>
-  <si>
-    <t>mutagenic metabolie assesment</t>
-  </si>
-  <si>
     <t>SRD</t>
   </si>
   <si>
@@ -753,15 +744,9 @@
     <t>fDH</t>
   </si>
   <si>
-    <t>free drug hyphothesis</t>
-  </si>
-  <si>
     <t>MDCK assay</t>
   </si>
   <si>
-    <t>madin-darby canine kidney</t>
-  </si>
-  <si>
     <t>close to</t>
   </si>
   <si>
@@ -1212,12 +1197,6 @@
     <t>bodily humors</t>
   </si>
   <si>
-    <t>advocated</t>
-  </si>
-  <si>
-    <t>befürworten</t>
-  </si>
-  <si>
     <t>Cinchona-Rinde (Chinin)</t>
   </si>
   <si>
@@ -1270,6 +1249,75 @@
   </si>
   <si>
     <t>Ära</t>
+  </si>
+  <si>
+    <t>etwas befürworten</t>
+  </si>
+  <si>
+    <t>to advocat something</t>
+  </si>
+  <si>
+    <t>free drug hypothesis</t>
+  </si>
+  <si>
+    <t>madin darby canine kidney</t>
+  </si>
+  <si>
+    <t>MuM assessment</t>
+  </si>
+  <si>
+    <t>mutagenic metabolite assessment</t>
+  </si>
+  <si>
+    <t>target safety assessment</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thioflavin T </t>
+  </si>
+  <si>
+    <t>embarracing</t>
+  </si>
+  <si>
+    <t>umarmend</t>
+  </si>
+  <si>
+    <t>PAMPs</t>
+  </si>
+  <si>
+    <t>DAMPs</t>
+  </si>
+  <si>
+    <t>pathogen associated molecular patterns</t>
+  </si>
+  <si>
+    <t>damage associated molecular patterns</t>
+  </si>
+  <si>
+    <t>BSEP</t>
+  </si>
+  <si>
+    <t>bile salt export pump</t>
+  </si>
+  <si>
+    <t>posology</t>
+  </si>
+  <si>
+    <t>Dosierungslehre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitigation strategy </t>
+  </si>
+  <si>
+    <t>Strategie zur Risikominderung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">broaden dataset </t>
+  </si>
+  <si>
+    <t>Datenbasis erweitern</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B212"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="K194" sqref="K194"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1686,7 +1734,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1806,7 +1854,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1862,7 +1910,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1886,7 +1934,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1894,7 +1942,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1902,7 +1950,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1918,7 +1966,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1939,10 +1987,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1979,10 +2027,10 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1990,60 +2038,60 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
         <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
         <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
         <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
         <v>84</v>
-      </c>
-      <c r="B50" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -2051,546 +2099,546 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
         <v>88</v>
-      </c>
-      <c r="B53" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" t="s">
         <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
         <v>93</v>
-      </c>
-      <c r="B56" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
         <v>95</v>
-      </c>
-      <c r="B57" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
         <v>97</v>
-      </c>
-      <c r="B58" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
         <v>99</v>
-      </c>
-      <c r="B59" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" t="s">
         <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
         <v>103</v>
-      </c>
-      <c r="B61" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
         <v>105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
         <v>107</v>
-      </c>
-      <c r="B63" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
         <v>109</v>
-      </c>
-      <c r="B64" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
         <v>111</v>
-      </c>
-      <c r="B65" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" t="s">
         <v>113</v>
-      </c>
-      <c r="B66" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
         <v>115</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
         <v>117</v>
-      </c>
-      <c r="B68" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
         <v>119</v>
-      </c>
-      <c r="B69" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
         <v>121</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
         <v>123</v>
-      </c>
-      <c r="B71" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
         <v>125</v>
-      </c>
-      <c r="B72" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B73" t="s">
         <v>127</v>
-      </c>
-      <c r="B73" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" t="s">
         <v>131</v>
-      </c>
-      <c r="B75" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
         <v>133</v>
-      </c>
-      <c r="B76" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" t="s">
         <v>136</v>
-      </c>
-      <c r="B78" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B79" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" t="s">
         <v>139</v>
-      </c>
-      <c r="B81" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82" t="s">
         <v>141</v>
-      </c>
-      <c r="B82" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
         <v>143</v>
-      </c>
-      <c r="B83" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
         <v>145</v>
-      </c>
-      <c r="B84" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B85" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" t="s">
         <v>149</v>
-      </c>
-      <c r="B87" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" t="s">
         <v>152</v>
-      </c>
-      <c r="B89" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B90" t="s">
         <v>154</v>
-      </c>
-      <c r="B90" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
         <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" t="s">
         <v>158</v>
-      </c>
-      <c r="B92" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93" t="s">
         <v>160</v>
-      </c>
-      <c r="B93" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" t="s">
         <v>162</v>
-      </c>
-      <c r="B94" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B109" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B110" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B116" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B118" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B120" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -2598,351 +2646,351 @@
         <v>75</v>
       </c>
       <c r="B121" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B122" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B123" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B124" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B125" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B126" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B127" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B129" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B130" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B131" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B133" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B138" t="s">
-        <v>242</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B139" t="s">
-        <v>244</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B140" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B143" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B144" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B147" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B149" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B154" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B156" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B157" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B158" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B159" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B161" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B162" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B164" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -2955,34 +3003,34 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B167" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B169" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -2995,338 +3043,402 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B171" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B173" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B177" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B178" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B179" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B180" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B181" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B182" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B183" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B184" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B185" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B186" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B187" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B188" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B189" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B190" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B191" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B192" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B194" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B197" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B199" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B200" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B201" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B203" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B204" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B205" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B206" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B207" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B208" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B209" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B210" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B211" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B212" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>415</v>
+      </c>
+      <c r="B213" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>417</v>
+      </c>
+      <c r="B214" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>419</v>
+      </c>
+      <c r="B215" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>420</v>
+      </c>
+      <c r="B216" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>423</v>
+      </c>
+      <c r="B217" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>425</v>
+      </c>
+      <c r="B218" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>427</v>
+      </c>
+      <c r="B219" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF7FDD9-DFF4-4C50-82E4-DE4EC2CBB6CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBB5D9-8232-4AA2-801A-1ED4513510C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="434">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Fallstrick</t>
   </si>
   <si>
-    <t>TSA</t>
-  </si>
-  <si>
     <t>PBPK</t>
   </si>
   <si>
@@ -387,12 +384,6 @@
     <t>Blinddarm</t>
   </si>
   <si>
-    <t>ureter</t>
-  </si>
-  <si>
-    <t>Harnleiter</t>
-  </si>
-  <si>
     <t>urethra</t>
   </si>
   <si>
@@ -450,9 +441,6 @@
     <t>T4P</t>
   </si>
   <si>
-    <t>Translation for patients</t>
-  </si>
-  <si>
     <t>Anxiety disorder</t>
   </si>
   <si>
@@ -669,9 +657,6 @@
     <t>FBS</t>
   </si>
   <si>
-    <t>fragment base screen</t>
-  </si>
-  <si>
     <t>DEL</t>
   </si>
   <si>
@@ -696,9 +681,6 @@
     <t>BI Fire</t>
   </si>
   <si>
-    <t>BI finding iniative and rational exploration</t>
-  </si>
-  <si>
     <t>LE</t>
   </si>
   <si>
@@ -1318,6 +1300,33 @@
   </si>
   <si>
     <t>Datenbasis erweitern</t>
+  </si>
+  <si>
+    <t>TSA safety</t>
+  </si>
+  <si>
+    <t>TSA assay</t>
+  </si>
+  <si>
+    <t>fragment based screen</t>
+  </si>
+  <si>
+    <t>translation for patients</t>
+  </si>
+  <si>
+    <t>BI finding initiative and rational exploration</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>high density lipoprotein</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>low density lipoprotein</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1702,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1854,7 +1863,7 @@
         <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -1910,7 +1919,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -1934,7 +1943,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1942,7 +1951,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1950,7 +1959,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1966,7 +1975,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1987,10 +1996,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,71 +2036,71 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="B45" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
         <v>79</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
         <v>83</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
         <v>49</v>
@@ -2099,1042 +2108,1042 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" t="s">
         <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
         <v>90</v>
-      </c>
-      <c r="B55" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
         <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
         <v>94</v>
-      </c>
-      <c r="B57" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
         <v>96</v>
-      </c>
-      <c r="B58" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
         <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
         <v>100</v>
-      </c>
-      <c r="B60" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
         <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
         <v>104</v>
-      </c>
-      <c r="B62" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
         <v>108</v>
-      </c>
-      <c r="B64" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
         <v>110</v>
-      </c>
-      <c r="B65" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" t="s">
         <v>112</v>
-      </c>
-      <c r="B66" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
         <v>114</v>
-      </c>
-      <c r="B67" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
         <v>116</v>
-      </c>
-      <c r="B68" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
         <v>118</v>
-      </c>
-      <c r="B69" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
         <v>120</v>
-      </c>
-      <c r="B70" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
         <v>122</v>
-      </c>
-      <c r="B71" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
         <v>124</v>
-      </c>
-      <c r="B72" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" t="s">
         <v>126</v>
-      </c>
-      <c r="B73" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" t="s">
         <v>128</v>
-      </c>
-      <c r="B74" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" t="s">
         <v>130</v>
-      </c>
-      <c r="B75" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>347</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>406</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>412</v>
+        <v>159</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B97" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>168</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B108" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B117" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>426</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B122" t="s">
-        <v>335</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>221</v>
+        <v>429</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B131" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B132" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B136" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B137" t="s">
-        <v>237</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B139" t="s">
-        <v>411</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B140" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="B141" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="B142" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B143" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
-        <v>250</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="B146" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B149" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B150" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="B151" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>324</v>
+        <v>255</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B154" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="B156" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B158" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B161" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B162" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B163" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="B165" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B166" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B167" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>290</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>285</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B171" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B172" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B174" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B175" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B176" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B177" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B178" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B179" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B180" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3142,303 +3151,311 @@
         <v>350</v>
       </c>
       <c r="B183" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B184" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B186" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B187" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B188" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B189" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B190" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B191" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B192" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B193" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B195" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B196" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B197" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B199" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B201" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B202" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B204" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B206" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B207" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B208" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B209" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B210" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B211" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B212" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B213" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B215" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B216" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B217" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B220" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>432</v>
+      </c>
+      <c r="B221" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBB5D9-8232-4AA2-801A-1ED4513510C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2293C0F-45E0-43A9-AEEE-A830ABA6FFA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="458">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -924,9 +924,6 @@
     <t>aggregation sassay</t>
   </si>
   <si>
-    <t>aggregation assy (dynamic light scattering)</t>
-  </si>
-  <si>
     <t>human ether a go go related Gene</t>
   </si>
   <si>
@@ -1327,6 +1324,81 @@
   </si>
   <si>
     <t>low density lipoprotein</t>
+  </si>
+  <si>
+    <t>dyes</t>
+  </si>
+  <si>
+    <t>Fabrostoffe</t>
+  </si>
+  <si>
+    <t>contemporary</t>
+  </si>
+  <si>
+    <t>zeitgenössisch</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>Genauigkeit</t>
+  </si>
+  <si>
+    <t>caveat</t>
+  </si>
+  <si>
+    <t>Vorbehalt</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>Erkrankung</t>
+  </si>
+  <si>
+    <t>abbreviation</t>
+  </si>
+  <si>
+    <t>Abkürzung</t>
+  </si>
+  <si>
+    <t>aggregation assay (dynamic light scattering)</t>
+  </si>
+  <si>
+    <t>hypothermia</t>
+  </si>
+  <si>
+    <t>Unterkühlung</t>
+  </si>
+  <si>
+    <t>lethargy</t>
+  </si>
+  <si>
+    <t>Teilnahmslosigkeit</t>
+  </si>
+  <si>
+    <t>piloerection</t>
+  </si>
+  <si>
+    <t>Gänsehaut</t>
+  </si>
+  <si>
+    <t>peripheral restricted tool compound</t>
+  </si>
+  <si>
+    <t>tool Verbindung die nicht die Blut Hirn Schranke passiert</t>
+  </si>
+  <si>
+    <t>Fragile X Syndrom (FXS)</t>
+  </si>
+  <si>
+    <t>genetische Erkrankung wie Autismus Spektrum Störungen</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>blood brain barrier</t>
   </si>
 </sst>
 </file>
@@ -1678,15 +1750,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B221"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1959,7 +2031,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -1975,7 +2047,7 @@
         <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1996,10 +2068,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" t="s">
         <v>301</v>
-      </c>
-      <c r="B39" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2036,18 +2108,18 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" t="s">
         <v>303</v>
-      </c>
-      <c r="B44" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2055,7 +2127,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2095,7 +2167,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2119,7 +2191,7 @@
         <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2295,7 +2367,7 @@
         <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2319,7 +2391,7 @@
         <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2335,7 +2407,7 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2359,7 +2431,7 @@
         <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2367,7 +2439,7 @@
         <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2383,7 +2455,7 @@
         <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2436,10 +2508,10 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>405</v>
+      </c>
+      <c r="B94" t="s">
         <v>406</v>
-      </c>
-      <c r="B94" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2476,7 +2548,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B99" t="s">
         <v>167</v>
@@ -2516,7 +2588,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B104" t="s">
         <v>176</v>
@@ -2527,7 +2599,7 @@
         <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2580,7 +2652,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
         <v>190</v>
@@ -2623,7 +2695,7 @@
         <v>199</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2644,7 +2716,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120" t="s">
         <v>204</v>
@@ -2655,7 +2727,7 @@
         <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2671,7 +2743,7 @@
         <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2679,7 +2751,7 @@
         <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2708,7 +2780,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B128" t="s">
         <v>216</v>
@@ -2719,7 +2791,7 @@
         <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2783,7 +2855,7 @@
         <v>232</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2791,7 +2863,7 @@
         <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2884,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B141" t="s">
         <v>238</v>
@@ -2844,10 +2916,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>315</v>
+      </c>
+      <c r="B145" t="s">
         <v>316</v>
-      </c>
-      <c r="B145" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,10 +2964,10 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>317</v>
+      </c>
+      <c r="B151" t="s">
         <v>318</v>
-      </c>
-      <c r="B151" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -2924,10 +2996,10 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" t="s">
         <v>320</v>
-      </c>
-      <c r="B155" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3076,386 +3148,482 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>322</v>
+      </c>
+      <c r="B175" t="s">
         <v>323</v>
-      </c>
-      <c r="B175" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>329</v>
+      </c>
+      <c r="B176" t="s">
         <v>330</v>
-      </c>
-      <c r="B176" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>331</v>
+      </c>
+      <c r="B177" t="s">
         <v>332</v>
-      </c>
-      <c r="B177" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>333</v>
+      </c>
+      <c r="B178" t="s">
         <v>334</v>
-      </c>
-      <c r="B178" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>335</v>
+      </c>
+      <c r="B179" t="s">
         <v>336</v>
-      </c>
-      <c r="B179" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>337</v>
+      </c>
+      <c r="B180" t="s">
         <v>338</v>
-      </c>
-      <c r="B180" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
         <v>342</v>
-      </c>
-      <c r="B181" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
         <v>344</v>
-      </c>
-      <c r="B182" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B183" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>346</v>
+      </c>
+      <c r="B184" t="s">
         <v>347</v>
-      </c>
-      <c r="B184" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B185" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
+        <v>351</v>
+      </c>
+      <c r="B186" t="s">
         <v>352</v>
-      </c>
-      <c r="B186" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" t="s">
         <v>354</v>
-      </c>
-      <c r="B187" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>355</v>
+      </c>
+      <c r="B188" t="s">
         <v>356</v>
-      </c>
-      <c r="B188" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>357</v>
+      </c>
+      <c r="B189" t="s">
         <v>358</v>
-      </c>
-      <c r="B189" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>359</v>
+      </c>
+      <c r="B190" t="s">
         <v>360</v>
-      </c>
-      <c r="B190" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>361</v>
+      </c>
+      <c r="B191" t="s">
         <v>362</v>
-      </c>
-      <c r="B191" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>363</v>
+      </c>
+      <c r="B192" t="s">
         <v>364</v>
-      </c>
-      <c r="B192" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>365</v>
+      </c>
+      <c r="B193" t="s">
         <v>366</v>
-      </c>
-      <c r="B193" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>367</v>
+      </c>
+      <c r="B194" t="s">
         <v>368</v>
-      </c>
-      <c r="B194" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>369</v>
+      </c>
+      <c r="B195" t="s">
         <v>370</v>
-      </c>
-      <c r="B195" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>371</v>
+      </c>
+      <c r="B196" t="s">
         <v>372</v>
-      </c>
-      <c r="B196" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>373</v>
+      </c>
+      <c r="B197" t="s">
         <v>374</v>
-      </c>
-      <c r="B197" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>375</v>
+      </c>
+      <c r="B198" t="s">
         <v>376</v>
-      </c>
-      <c r="B198" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>377</v>
+      </c>
+      <c r="B199" t="s">
         <v>378</v>
-      </c>
-      <c r="B199" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>379</v>
+      </c>
+      <c r="B200" t="s">
         <v>380</v>
-      </c>
-      <c r="B200" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B202" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B203" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>385</v>
+      </c>
+      <c r="B204" t="s">
         <v>386</v>
-      </c>
-      <c r="B204" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>387</v>
+      </c>
+      <c r="B205" t="s">
         <v>388</v>
-      </c>
-      <c r="B205" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>389</v>
+      </c>
+      <c r="B206" t="s">
         <v>390</v>
-      </c>
-      <c r="B206" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>391</v>
+      </c>
+      <c r="B207" t="s">
         <v>392</v>
-      </c>
-      <c r="B207" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>393</v>
+      </c>
+      <c r="B208" t="s">
         <v>394</v>
-      </c>
-      <c r="B208" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>395</v>
+      </c>
+      <c r="B209" t="s">
         <v>396</v>
-      </c>
-      <c r="B209" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>397</v>
+      </c>
+      <c r="B210" t="s">
         <v>398</v>
-      </c>
-      <c r="B210" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>399</v>
+      </c>
+      <c r="B211" t="s">
         <v>400</v>
-      </c>
-      <c r="B211" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>408</v>
+      </c>
+      <c r="B212" t="s">
         <v>409</v>
-      </c>
-      <c r="B212" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>410</v>
+      </c>
+      <c r="B213" t="s">
         <v>411</v>
-      </c>
-      <c r="B213" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B214" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B215" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>416</v>
+      </c>
+      <c r="B216" t="s">
         <v>417</v>
-      </c>
-      <c r="B216" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>418</v>
+      </c>
+      <c r="B217" t="s">
         <v>419</v>
-      </c>
-      <c r="B217" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>420</v>
+      </c>
+      <c r="B218" t="s">
         <v>421</v>
-      </c>
-      <c r="B218" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>422</v>
+      </c>
+      <c r="B219" t="s">
         <v>423</v>
-      </c>
-      <c r="B219" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>429</v>
+      </c>
+      <c r="B220" t="s">
         <v>430</v>
-      </c>
-      <c r="B220" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>431</v>
+      </c>
+      <c r="B221" t="s">
         <v>432</v>
       </c>
-      <c r="B221" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>433</v>
+      </c>
+      <c r="B222" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>437</v>
+      </c>
+      <c r="B224" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>439</v>
+      </c>
+      <c r="B225" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>441</v>
+      </c>
+      <c r="B226" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>443</v>
+      </c>
+      <c r="B227" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>446</v>
+      </c>
+      <c r="B228" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>448</v>
+      </c>
+      <c r="B229" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>450</v>
+      </c>
+      <c r="B230" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>452</v>
+      </c>
+      <c r="B231" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>454</v>
+      </c>
+      <c r="B232" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>456</v>
+      </c>
+      <c r="B233" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2293C0F-45E0-43A9-AEEE-A830ABA6FFA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98AC02-4BB0-4BA1-AF7D-06E660B841C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="462">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -1392,13 +1392,25 @@
     <t>Fragile X Syndrom (FXS)</t>
   </si>
   <si>
-    <t>genetische Erkrankung wie Autismus Spektrum Störungen</t>
-  </si>
-  <si>
     <t>BBB</t>
   </si>
   <si>
     <t>blood brain barrier</t>
+  </si>
+  <si>
+    <t>DRPRC</t>
+  </si>
+  <si>
+    <t>CVD</t>
+  </si>
+  <si>
+    <t>cardiovascular disease</t>
+  </si>
+  <si>
+    <t>discovery research project report center</t>
+  </si>
+  <si>
+    <t>Autismus Spektrum Störungen</t>
   </si>
 </sst>
 </file>
@@ -1750,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3615,15 +3627,31 @@
         <v>454</v>
       </c>
       <c r="B232" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>455</v>
+      </c>
+      <c r="B233" t="s">
         <v>456</v>
       </c>
-      <c r="B233" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
         <v>457</v>
+      </c>
+      <c r="B234" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>458</v>
+      </c>
+      <c r="B235" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D98AC02-4BB0-4BA1-AF7D-06E660B841C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA62E5BE-238B-452F-BDA5-57ADE43ADF2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="492">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -1083,9 +1083,6 @@
     <t>biliary clearence</t>
   </si>
   <si>
-    <t>Ausscheidunjg über Stuhlgang</t>
-  </si>
-  <si>
     <t>lack of smoething</t>
   </si>
   <si>
@@ -1329,9 +1326,6 @@
     <t>dyes</t>
   </si>
   <si>
-    <t>Fabrostoffe</t>
-  </si>
-  <si>
     <t>contemporary</t>
   </si>
   <si>
@@ -1411,6 +1405,102 @@
   </si>
   <si>
     <t>Autismus Spektrum Störungen</t>
+  </si>
+  <si>
+    <t>Farbstoffe</t>
+  </si>
+  <si>
+    <t>Ausscheidung über Stuhlgang</t>
+  </si>
+  <si>
+    <t>Nährstoffe</t>
+  </si>
+  <si>
+    <t>nutrient</t>
+  </si>
+  <si>
+    <t>to sustain something</t>
+  </si>
+  <si>
+    <t>etwas aufrechterhalten</t>
+  </si>
+  <si>
+    <t>alveoli</t>
+  </si>
+  <si>
+    <t>Lungenbläschen</t>
+  </si>
+  <si>
+    <t>cerebrum</t>
+  </si>
+  <si>
+    <t>Großhirn</t>
+  </si>
+  <si>
+    <t>cerebellum</t>
+  </si>
+  <si>
+    <t>Kleinhirn</t>
+  </si>
+  <si>
+    <t>brainstem</t>
+  </si>
+  <si>
+    <t>Hirnstamm</t>
+  </si>
+  <si>
+    <t>environmental perception</t>
+  </si>
+  <si>
+    <t>Umweltwahrnehmung</t>
+  </si>
+  <si>
+    <t>mucus</t>
+  </si>
+  <si>
+    <t>Schleim</t>
+  </si>
+  <si>
+    <t>partially digested chyme</t>
+  </si>
+  <si>
+    <t>teilweise verdauter Speisebrei</t>
+  </si>
+  <si>
+    <t>villi</t>
+  </si>
+  <si>
+    <t>Darmzotten</t>
+  </si>
+  <si>
+    <t>microvilli</t>
+  </si>
+  <si>
+    <t>Mikrozotten, die auf den Villi sitzen</t>
+  </si>
+  <si>
+    <t>cemetery</t>
+  </si>
+  <si>
+    <t>Friedhof</t>
+  </si>
+  <si>
+    <t>in due course</t>
+  </si>
+  <si>
+    <t>zu gegebener Zeit</t>
+  </si>
+  <si>
+    <t>IUPL</t>
+  </si>
+  <si>
+    <t>innovation unit project leader</t>
+  </si>
+  <si>
+    <t>coherence</t>
+  </si>
+  <si>
+    <t>Stimmigkeit</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A254" sqref="A253:A254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,7 +2133,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2128,10 +2218,10 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2419,7 +2509,7 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2520,10 +2610,10 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>404</v>
+      </c>
+      <c r="B94" t="s">
         <v>405</v>
-      </c>
-      <c r="B94" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2728,7 +2818,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B120" t="s">
         <v>204</v>
@@ -2763,7 +2853,7 @@
         <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2803,7 +2893,7 @@
         <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2867,7 +2957,7 @@
         <v>232</v>
       </c>
       <c r="B137" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2875,7 +2965,7 @@
         <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3259,399 +3349,519 @@
         <v>351</v>
       </c>
       <c r="B186" t="s">
-        <v>352</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>352</v>
+      </c>
+      <c r="B187" t="s">
         <v>353</v>
-      </c>
-      <c r="B187" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
+        <v>354</v>
+      </c>
+      <c r="B188" t="s">
         <v>355</v>
-      </c>
-      <c r="B188" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" t="s">
         <v>357</v>
-      </c>
-      <c r="B189" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" t="s">
         <v>359</v>
-      </c>
-      <c r="B190" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>360</v>
+      </c>
+      <c r="B191" t="s">
         <v>361</v>
-      </c>
-      <c r="B191" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>362</v>
+      </c>
+      <c r="B192" t="s">
         <v>363</v>
-      </c>
-      <c r="B192" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
+        <v>364</v>
+      </c>
+      <c r="B193" t="s">
         <v>365</v>
-      </c>
-      <c r="B193" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" t="s">
         <v>367</v>
-      </c>
-      <c r="B194" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
+        <v>368</v>
+      </c>
+      <c r="B195" t="s">
         <v>369</v>
-      </c>
-      <c r="B195" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" t="s">
         <v>371</v>
-      </c>
-      <c r="B196" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
+        <v>372</v>
+      </c>
+      <c r="B197" t="s">
         <v>373</v>
-      </c>
-      <c r="B197" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" t="s">
         <v>375</v>
-      </c>
-      <c r="B198" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
+        <v>376</v>
+      </c>
+      <c r="B199" t="s">
         <v>377</v>
-      </c>
-      <c r="B199" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>378</v>
+      </c>
+      <c r="B200" t="s">
         <v>379</v>
-      </c>
-      <c r="B200" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B202" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
+        <v>384</v>
+      </c>
+      <c r="B204" t="s">
         <v>385</v>
-      </c>
-      <c r="B204" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
+        <v>386</v>
+      </c>
+      <c r="B205" t="s">
         <v>387</v>
-      </c>
-      <c r="B205" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
+        <v>388</v>
+      </c>
+      <c r="B206" t="s">
         <v>389</v>
-      </c>
-      <c r="B206" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
+        <v>390</v>
+      </c>
+      <c r="B207" t="s">
         <v>391</v>
-      </c>
-      <c r="B207" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>392</v>
+      </c>
+      <c r="B208" t="s">
         <v>393</v>
-      </c>
-      <c r="B208" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
+        <v>394</v>
+      </c>
+      <c r="B209" t="s">
         <v>395</v>
-      </c>
-      <c r="B209" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
+        <v>396</v>
+      </c>
+      <c r="B210" t="s">
         <v>397</v>
-      </c>
-      <c r="B210" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
+        <v>398</v>
+      </c>
+      <c r="B211" t="s">
         <v>399</v>
-      </c>
-      <c r="B211" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
+        <v>407</v>
+      </c>
+      <c r="B212" t="s">
         <v>408</v>
-      </c>
-      <c r="B212" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" t="s">
         <v>410</v>
-      </c>
-      <c r="B213" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B214" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B215" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
+        <v>415</v>
+      </c>
+      <c r="B216" t="s">
         <v>416</v>
-      </c>
-      <c r="B216" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
+        <v>417</v>
+      </c>
+      <c r="B217" t="s">
         <v>418</v>
-      </c>
-      <c r="B217" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" t="s">
         <v>420</v>
-      </c>
-      <c r="B218" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" t="s">
         <v>422</v>
-      </c>
-      <c r="B219" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>428</v>
+      </c>
+      <c r="B220" t="s">
         <v>429</v>
-      </c>
-      <c r="B220" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
+        <v>430</v>
+      </c>
+      <c r="B221" t="s">
         <v>431</v>
-      </c>
-      <c r="B221" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B222" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B223" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B224" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B225" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B226" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B227" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B232" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B233" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B235" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>463</v>
+      </c>
+      <c r="B236" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>464</v>
+      </c>
+      <c r="B237" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>466</v>
+      </c>
+      <c r="B238" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>468</v>
+      </c>
+      <c r="B239" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>470</v>
+      </c>
+      <c r="B240" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>472</v>
+      </c>
+      <c r="B241" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>474</v>
+      </c>
+      <c r="B242" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>476</v>
+      </c>
+      <c r="B243" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>478</v>
+      </c>
+      <c r="B244" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>480</v>
+      </c>
+      <c r="B245" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>482</v>
+      </c>
+      <c r="B246" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>486</v>
+      </c>
+      <c r="B248" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>488</v>
+      </c>
+      <c r="B249" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>490</v>
+      </c>
+      <c r="B250" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA62E5BE-238B-452F-BDA5-57ADE43ADF2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB942A39-A085-4B85-938E-D4575FF307E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -936,9 +936,6 @@
     <t>to appreciate someone</t>
   </si>
   <si>
-    <t>jemand wertgeschätzten</t>
-  </si>
-  <si>
     <t>plasma protein binding pharmacokinetik</t>
   </si>
   <si>
@@ -1083,9 +1080,6 @@
     <t>biliary clearence</t>
   </si>
   <si>
-    <t>lack of smoething</t>
-  </si>
-  <si>
     <t>fehlen von etwas</t>
   </si>
   <si>
@@ -1501,6 +1495,12 @@
   </si>
   <si>
     <t>Stimmigkeit</t>
+  </si>
+  <si>
+    <t>lack of something</t>
+  </si>
+  <si>
+    <t>jemanden wertschätzen</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A254" sqref="A253:A254"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2133,7 @@
         <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2213,15 +2213,15 @@
         <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2269,7 +2269,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2293,7 +2293,7 @@
         <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2469,7 +2469,7 @@
         <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2493,7 +2493,7 @@
         <v>134</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2509,7 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2533,7 +2533,7 @@
         <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
         <v>143</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2557,7 +2557,7 @@
         <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2610,10 +2610,10 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2650,7 +2650,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
         <v>167</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B104" t="s">
         <v>176</v>
@@ -2701,7 +2701,7 @@
         <v>177</v>
       </c>
       <c r="B105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2754,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
         <v>190</v>
@@ -2797,7 +2797,7 @@
         <v>199</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2818,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B120" t="s">
         <v>204</v>
@@ -2829,7 +2829,7 @@
         <v>205</v>
       </c>
       <c r="B121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2845,7 +2845,7 @@
         <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
         <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2882,7 +2882,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B128" t="s">
         <v>216</v>
@@ -2893,7 +2893,7 @@
         <v>217</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +2957,7 @@
         <v>232</v>
       </c>
       <c r="B137" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
         <v>233</v>
       </c>
       <c r="B138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2986,7 +2986,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B141" t="s">
         <v>238</v>
@@ -3018,10 +3018,10 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" t="s">
         <v>315</v>
-      </c>
-      <c r="B145" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,10 +3066,10 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>316</v>
+      </c>
+      <c r="B151" t="s">
         <v>317</v>
-      </c>
-      <c r="B151" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3098,10 +3098,10 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>318</v>
+      </c>
+      <c r="B155" t="s">
         <v>319</v>
-      </c>
-      <c r="B155" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,618 +3250,618 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>321</v>
+      </c>
+      <c r="B175" t="s">
         <v>322</v>
-      </c>
-      <c r="B175" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
+        <v>328</v>
+      </c>
+      <c r="B176" t="s">
         <v>329</v>
-      </c>
-      <c r="B176" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
+        <v>330</v>
+      </c>
+      <c r="B177" t="s">
         <v>331</v>
-      </c>
-      <c r="B177" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
+        <v>332</v>
+      </c>
+      <c r="B178" t="s">
         <v>333</v>
-      </c>
-      <c r="B178" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>334</v>
+      </c>
+      <c r="B179" t="s">
         <v>335</v>
-      </c>
-      <c r="B179" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" t="s">
         <v>337</v>
-      </c>
-      <c r="B180" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>340</v>
+      </c>
+      <c r="B181" t="s">
         <v>341</v>
-      </c>
-      <c r="B181" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>342</v>
+      </c>
+      <c r="B182" t="s">
         <v>343</v>
-      </c>
-      <c r="B182" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B183" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
+        <v>345</v>
+      </c>
+      <c r="B184" t="s">
         <v>346</v>
-      </c>
-      <c r="B184" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B185" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B186" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>352</v>
+        <v>490</v>
       </c>
       <c r="B187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B201" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B202" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B203" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B205" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B206" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B207" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B208" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B209" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
+        <v>409</v>
+      </c>
+      <c r="B214" t="s">
         <v>411</v>
-      </c>
-      <c r="B214" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
+        <v>410</v>
+      </c>
+      <c r="B215" t="s">
         <v>412</v>
-      </c>
-      <c r="B215" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B222" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B223" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B224" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B225" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B226" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B227" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B228" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B229" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B231" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B232" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B233" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B235" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B236" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B239" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B242" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B243" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B244" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/sample_memory.xlsx
+++ b/sample_memory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bixenmann\Documents\Eigene Dokumente\SynologyDrive\VSC_Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB942A39-A085-4B85-938E-D4575FF307E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A629B-E2BB-4155-A44B-6EB9350F63D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{95876C56-AE7E-409F-849F-6EA48A653E4E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="698">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -48,12 +48,6 @@
     <t>mode of action</t>
   </si>
   <si>
-    <t>hose</t>
-  </si>
-  <si>
-    <t>Schlauch</t>
-  </si>
-  <si>
     <t>FiH</t>
   </si>
   <si>
@@ -1501,6 +1495,630 @@
   </si>
   <si>
     <t>jemanden wertschätzen</t>
+  </si>
+  <si>
+    <t>miscellaneous</t>
+  </si>
+  <si>
+    <t>verschiedenes</t>
+  </si>
+  <si>
+    <t>etwas wurde eingewiehen</t>
+  </si>
+  <si>
+    <t>something was inaugurated</t>
+  </si>
+  <si>
+    <t>Einschränkungen</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>etwas anschauen</t>
+  </si>
+  <si>
+    <t>to look at something</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to look for something </t>
+  </si>
+  <si>
+    <t>etwas suchen</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>Herd</t>
+  </si>
+  <si>
+    <t>loomed</t>
+  </si>
+  <si>
+    <t>breakwater</t>
+  </si>
+  <si>
+    <t>Wellenbrecher</t>
+  </si>
+  <si>
+    <t>stupendous</t>
+  </si>
+  <si>
+    <t>invading</t>
+  </si>
+  <si>
+    <t>freighter</t>
+  </si>
+  <si>
+    <t>Frachter</t>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t>versed</t>
+  </si>
+  <si>
+    <t>stake</t>
+  </si>
+  <si>
+    <t>revised</t>
+  </si>
+  <si>
+    <t>überarbeitet</t>
+  </si>
+  <si>
+    <t>brazen</t>
+  </si>
+  <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>seeking</t>
+  </si>
+  <si>
+    <t>suchend</t>
+  </si>
+  <si>
+    <t>mound</t>
+  </si>
+  <si>
+    <t>disappeared</t>
+  </si>
+  <si>
+    <t>verschwunden</t>
+  </si>
+  <si>
+    <t>perpetually</t>
+  </si>
+  <si>
+    <t>apparently</t>
+  </si>
+  <si>
+    <t>glimpse</t>
+  </si>
+  <si>
+    <t>flüchtiger Blick</t>
+  </si>
+  <si>
+    <t>imperiously</t>
+  </si>
+  <si>
+    <t>revealing</t>
+  </si>
+  <si>
+    <t>rim</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>protruding</t>
+  </si>
+  <si>
+    <t>hervorstehend</t>
+  </si>
+  <si>
+    <t>rungs</t>
+  </si>
+  <si>
+    <t>Sprossen</t>
+  </si>
+  <si>
+    <t>clinging</t>
+  </si>
+  <si>
+    <t>sich festklammernd</t>
+  </si>
+  <si>
+    <t>misstepped</t>
+  </si>
+  <si>
+    <t>falsch getreten</t>
+  </si>
+  <si>
+    <t>incongruously</t>
+  </si>
+  <si>
+    <t>rehearsed</t>
+  </si>
+  <si>
+    <t>geprobt</t>
+  </si>
+  <si>
+    <t>smugly</t>
+  </si>
+  <si>
+    <t>selbstzufrieden</t>
+  </si>
+  <si>
+    <t>witnessed</t>
+  </si>
+  <si>
+    <t>parchments</t>
+  </si>
+  <si>
+    <t>Pergamente</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>Rahmen</t>
+  </si>
+  <si>
+    <t>gilded</t>
+  </si>
+  <si>
+    <t>vergoldet</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>Leinwand</t>
+  </si>
+  <si>
+    <t>smirking</t>
+  </si>
+  <si>
+    <t>squinting</t>
+  </si>
+  <si>
+    <t>frowned</t>
+  </si>
+  <si>
+    <t>die Stirn gerunzelt</t>
+  </si>
+  <si>
+    <t>boasted</t>
+  </si>
+  <si>
+    <t>prahlte</t>
+  </si>
+  <si>
+    <t>tousled</t>
+  </si>
+  <si>
+    <t>zerzaust</t>
+  </si>
+  <si>
+    <t>weary</t>
+  </si>
+  <si>
+    <t>hazy</t>
+  </si>
+  <si>
+    <t>temples</t>
+  </si>
+  <si>
+    <t>Schläfen</t>
+  </si>
+  <si>
+    <t>embarrassment</t>
+  </si>
+  <si>
+    <t>Verlegenheit</t>
+  </si>
+  <si>
+    <t>ribbing</t>
+  </si>
+  <si>
+    <t>Neckerei</t>
+  </si>
+  <si>
+    <t>accolade</t>
+  </si>
+  <si>
+    <t>resurfaced</t>
+  </si>
+  <si>
+    <t>wieder aufgetaucht</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>faszinierend</t>
+  </si>
+  <si>
+    <t>embarrassed</t>
+  </si>
+  <si>
+    <t>verlegen</t>
+  </si>
+  <si>
+    <t>revered</t>
+  </si>
+  <si>
+    <t>verehrt</t>
+  </si>
+  <si>
+    <t>oddly</t>
+  </si>
+  <si>
+    <t>seltsam</t>
+  </si>
+  <si>
+    <t>prevail</t>
+  </si>
+  <si>
+    <t>possess</t>
+  </si>
+  <si>
+    <t>besitzen</t>
+  </si>
+  <si>
+    <t>ingeniously</t>
+  </si>
+  <si>
+    <t>penance</t>
+  </si>
+  <si>
+    <t>Buße</t>
+  </si>
+  <si>
+    <t>assured</t>
+  </si>
+  <si>
+    <t>sacrifice</t>
+  </si>
+  <si>
+    <t>Opfer</t>
+  </si>
+  <si>
+    <t>servants</t>
+  </si>
+  <si>
+    <t>Diener</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>revere</t>
+  </si>
+  <si>
+    <t>verehren</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>blossom</t>
+  </si>
+  <si>
+    <t>blühen</t>
+  </si>
+  <si>
+    <t>fortunate</t>
+  </si>
+  <si>
+    <t>coincidence</t>
+  </si>
+  <si>
+    <t>Zufall</t>
+  </si>
+  <si>
+    <t>intertwined</t>
+  </si>
+  <si>
+    <t>verflochten</t>
+  </si>
+  <si>
+    <t>seemingly</t>
+  </si>
+  <si>
+    <t>scheinbar</t>
+  </si>
+  <si>
+    <t>innocuous</t>
+  </si>
+  <si>
+    <t>harmlos</t>
+  </si>
+  <si>
+    <t>diminutive</t>
+  </si>
+  <si>
+    <t>insecure</t>
+  </si>
+  <si>
+    <t>unsicher</t>
+  </si>
+  <si>
+    <t>chosen</t>
+  </si>
+  <si>
+    <t>ausgewählt</t>
+  </si>
+  <si>
+    <t>sacred</t>
+  </si>
+  <si>
+    <t>heilig</t>
+  </si>
+  <si>
+    <t>foreboding</t>
+  </si>
+  <si>
+    <t>esteemed</t>
+  </si>
+  <si>
+    <t>chalkboard</t>
+  </si>
+  <si>
+    <t>Tafel</t>
+  </si>
+  <si>
+    <t>revolving</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>Handfläche</t>
+  </si>
+  <si>
+    <t>trepidation</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>Treppe</t>
+  </si>
+  <si>
+    <t>yawning</t>
+  </si>
+  <si>
+    <t>emerged</t>
+  </si>
+  <si>
+    <t>aufgetaucht</t>
+  </si>
+  <si>
+    <t>adjoining</t>
+  </si>
+  <si>
+    <t>angrenzend</t>
+  </si>
+  <si>
+    <t>arched</t>
+  </si>
+  <si>
+    <t>gewölbt</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>venerated</t>
+  </si>
+  <si>
+    <t>sanctity</t>
+  </si>
+  <si>
+    <t>Heiligkeit</t>
+  </si>
+  <si>
+    <t>fertility</t>
+  </si>
+  <si>
+    <t>Fruchtbarkeit</t>
+  </si>
+  <si>
+    <t>goddess</t>
+  </si>
+  <si>
+    <t>Göttin</t>
+  </si>
+  <si>
+    <t>vaguely</t>
+  </si>
+  <si>
+    <t>vage</t>
+  </si>
+  <si>
+    <t>crux</t>
+  </si>
+  <si>
+    <t>Kernpunkt</t>
+  </si>
+  <si>
+    <t>jolted</t>
+  </si>
+  <si>
+    <t>impeccably</t>
+  </si>
+  <si>
+    <t>tadellos</t>
+  </si>
+  <si>
+    <t>ceilings</t>
+  </si>
+  <si>
+    <t>Decken</t>
+  </si>
+  <si>
+    <t>marble</t>
+  </si>
+  <si>
+    <t>Marmor</t>
+  </si>
+  <si>
+    <t>restrained</t>
+  </si>
+  <si>
+    <t>snagged</t>
+  </si>
+  <si>
+    <t>hängen geblieben</t>
+  </si>
+  <si>
+    <t>sanctuary</t>
+  </si>
+  <si>
+    <t>sweeping</t>
+  </si>
+  <si>
+    <t>vows</t>
+  </si>
+  <si>
+    <t>Gelübde</t>
+  </si>
+  <si>
+    <t>chastity</t>
+  </si>
+  <si>
+    <t>Keuschheit</t>
+  </si>
+  <si>
+    <t>deviant</t>
+  </si>
+  <si>
+    <t>bury</t>
+  </si>
+  <si>
+    <t>begraben</t>
+  </si>
+  <si>
+    <t>sich abzeichnen</t>
+  </si>
+  <si>
+    <t>erstaunlich</t>
+  </si>
+  <si>
+    <t>eindringend</t>
+  </si>
+  <si>
+    <t>Chancen</t>
+  </si>
+  <si>
+    <t>vertraut</t>
+  </si>
+  <si>
+    <t>Einsatz</t>
+  </si>
+  <si>
+    <t>dreist</t>
+  </si>
+  <si>
+    <t>antik</t>
+  </si>
+  <si>
+    <t>Erde</t>
+  </si>
+  <si>
+    <t>Hügel</t>
+  </si>
+  <si>
+    <t>ständig</t>
+  </si>
+  <si>
+    <t>offenbar</t>
+  </si>
+  <si>
+    <t>herrisch</t>
+  </si>
+  <si>
+    <t>enthüllend</t>
+  </si>
+  <si>
+    <t>unpassend</t>
+  </si>
+  <si>
+    <t>beobachtet</t>
+  </si>
+  <si>
+    <t>grinsend</t>
+  </si>
+  <si>
+    <t>blinzelnd</t>
+  </si>
+  <si>
+    <t>müde</t>
+  </si>
+  <si>
+    <t>verschwommen</t>
+  </si>
+  <si>
+    <t>Auszeichnung</t>
+  </si>
+  <si>
+    <t>sich durchsetzen</t>
+  </si>
+  <si>
+    <t>genial</t>
+  </si>
+  <si>
+    <t>versichert</t>
+  </si>
+  <si>
+    <t>Angst</t>
+  </si>
+  <si>
+    <t>zügeln</t>
+  </si>
+  <si>
+    <t>begünstigt</t>
+  </si>
+  <si>
+    <t>winzig</t>
+  </si>
+  <si>
+    <t>Vorahnung</t>
+  </si>
+  <si>
+    <t>geschätzt</t>
+  </si>
+  <si>
+    <t>rotierend</t>
+  </si>
+  <si>
+    <t>Beklommenheit</t>
+  </si>
+  <si>
+    <t>gähnend</t>
+  </si>
+  <si>
+    <t>erschüttert</t>
+  </si>
+  <si>
+    <t>zurückhaltend</t>
+  </si>
+  <si>
+    <t>Heiligtum</t>
+  </si>
+  <si>
+    <t>weitreichend</t>
+  </si>
+  <si>
+    <t>abweichend</t>
   </si>
 </sst>
 </file>
@@ -1852,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33951E89-29DC-4789-ADCB-5AEF5E1F2D6E}">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A359" sqref="A359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1909,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1917,7 +2535,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1930,10 +2548,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,15 +2647,15 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2061,15 +2679,15 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2085,15 +2703,15 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
         <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2109,31 +2727,31 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>298</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
         <v>59</v>
-      </c>
-      <c r="B34" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2141,15 +2759,15 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,18 +2780,18 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2202,34 +2820,34 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s">
-        <v>491</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>421</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
         <v>75</v>
-      </c>
-      <c r="B46" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2261,23 +2879,23 @@
         <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
         <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2285,15 +2903,15 @@
         <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
         <v>88</v>
-      </c>
-      <c r="B54" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,39 +3079,39 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>130</v>
+      </c>
+      <c r="B76" t="s">
         <v>131</v>
-      </c>
-      <c r="B76" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" t="s">
         <v>134</v>
-      </c>
-      <c r="B79" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,15 +3119,15 @@
         <v>135</v>
       </c>
       <c r="B80" t="s">
-        <v>136</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
         <v>137</v>
-      </c>
-      <c r="B81" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2525,23 +3143,23 @@
         <v>140</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
         <v>143</v>
-      </c>
-      <c r="B85" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2549,15 +3167,15 @@
         <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" t="s">
         <v>146</v>
-      </c>
-      <c r="B87" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2602,18 +3220,18 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>400</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>402</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>403</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2642,15 +3260,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98" t="s">
         <v>165</v>
-      </c>
-      <c r="B98" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
         <v>167</v>
@@ -2682,26 +3300,26 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" t="s">
         <v>174</v>
-      </c>
-      <c r="B103" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>310</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
-        <v>176</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" t="s">
         <v>177</v>
-      </c>
-      <c r="B105" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,15 +3364,15 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>309</v>
+      </c>
+      <c r="B111" t="s">
         <v>188</v>
-      </c>
-      <c r="B111" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>189</v>
       </c>
       <c r="B112" t="s">
         <v>190</v>
@@ -2789,15 +3407,15 @@
         <v>197</v>
       </c>
       <c r="B116" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>198</v>
+      </c>
+      <c r="B117" t="s">
         <v>199</v>
-      </c>
-      <c r="B117" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,26 +3428,26 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>420</v>
+      </c>
+      <c r="B119" t="s">
         <v>202</v>
-      </c>
-      <c r="B119" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>422</v>
+        <v>203</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
+        <v>204</v>
+      </c>
+      <c r="B121" t="s">
         <v>205</v>
-      </c>
-      <c r="B121" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -2837,23 +3455,23 @@
         <v>206</v>
       </c>
       <c r="B122" t="s">
-        <v>207</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B123" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>208</v>
+      </c>
+      <c r="B124" t="s">
         <v>209</v>
-      </c>
-      <c r="B124" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2874,26 +3492,26 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>310</v>
+      </c>
+      <c r="B127" t="s">
         <v>214</v>
-      </c>
-      <c r="B127" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>216</v>
+      </c>
+      <c r="B129" t="s">
         <v>217</v>
-      </c>
-      <c r="B129" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -2949,23 +3567,23 @@
         <v>230</v>
       </c>
       <c r="B136" t="s">
-        <v>231</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>232</v>
+      </c>
+      <c r="B138" t="s">
         <v>233</v>
-      </c>
-      <c r="B138" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -2978,15 +3596,15 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B140" t="s">
         <v>236</v>
-      </c>
-      <c r="B140" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
         <v>238</v>
@@ -3010,18 +3628,18 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>243</v>
+        <v>312</v>
       </c>
       <c r="B144" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>314</v>
+        <v>243</v>
       </c>
       <c r="B145" t="s">
-        <v>315</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3058,18 +3676,18 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="B150" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="B151" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3090,18 +3708,18 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>259</v>
+        <v>316</v>
       </c>
       <c r="B154" t="s">
-        <v>260</v>
+        <v>317</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="B155" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3162,34 +3780,34 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>275</v>
+        <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
+        <v>278</v>
+      </c>
+      <c r="B165" t="s">
         <v>277</v>
-      </c>
-      <c r="B165" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
+        <v>279</v>
+      </c>
+      <c r="B166" t="s">
         <v>280</v>
-      </c>
-      <c r="B166" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,18 +3820,18 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>283</v>
+        <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,15 +3860,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="B173" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B174" t="s">
         <v>320</v>
@@ -3258,10 +3876,10 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3298,10 +3916,10 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3314,15 +3932,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>346</v>
+      </c>
+      <c r="B182" t="s">
         <v>342</v>
-      </c>
-      <c r="B182" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B183" t="s">
         <v>344</v>
@@ -3333,28 +3951,28 @@
         <v>345</v>
       </c>
       <c r="B184" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B185" t="s">
-        <v>349</v>
+        <v>457</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>350</v>
+        <v>488</v>
       </c>
       <c r="B186" t="s">
-        <v>459</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="B187" t="s">
         <v>351</v>
@@ -3458,34 +4076,34 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
+        <v>377</v>
+      </c>
+      <c r="B200" t="s">
         <v>376</v>
-      </c>
-      <c r="B200" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="B201" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>380</v>
+      </c>
+      <c r="B203" t="s">
         <v>381</v>
-      </c>
-      <c r="B203" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3546,10 +4164,10 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B211" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -3565,20 +4183,20 @@
         <v>407</v>
       </c>
       <c r="B213" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B214" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B215" t="s">
         <v>412</v>
@@ -3610,10 +4228,10 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B219" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3629,15 +4247,15 @@
         <v>428</v>
       </c>
       <c r="B221" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
+        <v>429</v>
+      </c>
+      <c r="B222" t="s">
         <v>430</v>
-      </c>
-      <c r="B222" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -3674,10 +4292,10 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B227" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -3709,15 +4327,15 @@
         <v>448</v>
       </c>
       <c r="B231" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
+        <v>449</v>
+      </c>
+      <c r="B232" t="s">
         <v>450</v>
-      </c>
-      <c r="B232" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -3725,31 +4343,31 @@
         <v>451</v>
       </c>
       <c r="B233" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>452</v>
+      </c>
+      <c r="B234" t="s">
         <v>453</v>
-      </c>
-      <c r="B234" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B235" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
+        <v>460</v>
+      </c>
+      <c r="B236" t="s">
         <v>461</v>
-      </c>
-      <c r="B236" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -3858,10 +4476,842 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B250" t="s">
-        <v>489</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>493</v>
+      </c>
+      <c r="B251" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>495</v>
+      </c>
+      <c r="B252" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>497</v>
+      </c>
+      <c r="B253" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>498</v>
+      </c>
+      <c r="B254" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>500</v>
+      </c>
+      <c r="B255" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>502</v>
+      </c>
+      <c r="B256" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>503</v>
+      </c>
+      <c r="B257" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>505</v>
+      </c>
+      <c r="B258" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>506</v>
+      </c>
+      <c r="B259" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>507</v>
+      </c>
+      <c r="B260" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>509</v>
+      </c>
+      <c r="B261" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>510</v>
+      </c>
+      <c r="B262" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>511</v>
+      </c>
+      <c r="B263" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>512</v>
+      </c>
+      <c r="B264" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>514</v>
+      </c>
+      <c r="B265" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>515</v>
+      </c>
+      <c r="B266" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>517</v>
+      </c>
+      <c r="B268" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>519</v>
+      </c>
+      <c r="B269" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>520</v>
+      </c>
+      <c r="B270" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>522</v>
+      </c>
+      <c r="B271" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>523</v>
+      </c>
+      <c r="B272" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>524</v>
+      </c>
+      <c r="B273" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>526</v>
+      </c>
+      <c r="B274" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>527</v>
+      </c>
+      <c r="B275" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>528</v>
+      </c>
+      <c r="B276" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>530</v>
+      </c>
+      <c r="B277" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>532</v>
+      </c>
+      <c r="B278" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>534</v>
+      </c>
+      <c r="B279" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>536</v>
+      </c>
+      <c r="B280" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>538</v>
+      </c>
+      <c r="B281" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>539</v>
+      </c>
+      <c r="B282" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>541</v>
+      </c>
+      <c r="B283" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>543</v>
+      </c>
+      <c r="B284" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>544</v>
+      </c>
+      <c r="B285" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>546</v>
+      </c>
+      <c r="B286" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>548</v>
+      </c>
+      <c r="B287" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>550</v>
+      </c>
+      <c r="B288" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>552</v>
+      </c>
+      <c r="B289" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>553</v>
+      </c>
+      <c r="B290" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>554</v>
+      </c>
+      <c r="B291" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>556</v>
+      </c>
+      <c r="B292" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>558</v>
+      </c>
+      <c r="B293" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>560</v>
+      </c>
+      <c r="B294" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>561</v>
+      </c>
+      <c r="B295" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>562</v>
+      </c>
+      <c r="B296" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>564</v>
+      </c>
+      <c r="B297" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>566</v>
+      </c>
+      <c r="B298" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>568</v>
+      </c>
+      <c r="B299" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>569</v>
+      </c>
+      <c r="B300" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>571</v>
+      </c>
+      <c r="B301" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>573</v>
+      </c>
+      <c r="B302" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>575</v>
+      </c>
+      <c r="B303" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>577</v>
+      </c>
+      <c r="B304" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>579</v>
+      </c>
+      <c r="B305" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>580</v>
+      </c>
+      <c r="B306" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>582</v>
+      </c>
+      <c r="B307" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>583</v>
+      </c>
+      <c r="B308" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>585</v>
+      </c>
+      <c r="B309" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>586</v>
+      </c>
+      <c r="B310" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>588</v>
+      </c>
+      <c r="B311" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>590</v>
+      </c>
+      <c r="B312" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>591</v>
+      </c>
+      <c r="B313" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>593</v>
+      </c>
+      <c r="B314" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>594</v>
+      </c>
+      <c r="B315" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>596</v>
+      </c>
+      <c r="B316" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>597</v>
+      </c>
+      <c r="B317" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>599</v>
+      </c>
+      <c r="B318" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>601</v>
+      </c>
+      <c r="B319" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>603</v>
+      </c>
+      <c r="B320" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>605</v>
+      </c>
+      <c r="B321" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>606</v>
+      </c>
+      <c r="B322" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>608</v>
+      </c>
+      <c r="B323" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>610</v>
+      </c>
+      <c r="B324" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>612</v>
+      </c>
+      <c r="B325" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>613</v>
+      </c>
+      <c r="B326" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>614</v>
+      </c>
+      <c r="B327" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>616</v>
+      </c>
+      <c r="B328" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>617</v>
+      </c>
+      <c r="B329" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>619</v>
+      </c>
+      <c r="B330" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>620</v>
+      </c>
+      <c r="B331" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>622</v>
+      </c>
+      <c r="B332" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>623</v>
+      </c>
+      <c r="B333" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>625</v>
+      </c>
+      <c r="B334" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>627</v>
+      </c>
+      <c r="B335" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>629</v>
+      </c>
+      <c r="B336" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>630</v>
+      </c>
+      <c r="B337" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>631</v>
+      </c>
+      <c r="B338" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>633</v>
+      </c>
+      <c r="B339" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>635</v>
+      </c>
+      <c r="B340" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>637</v>
+      </c>
+      <c r="B341" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>639</v>
+      </c>
+      <c r="B342" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>641</v>
+      </c>
+      <c r="B343" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>642</v>
+      </c>
+      <c r="B344" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>644</v>
+      </c>
+      <c r="B345" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>646</v>
+      </c>
+      <c r="B346" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>648</v>
+      </c>
+      <c r="B347" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>649</v>
+      </c>
+      <c r="B348" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>651</v>
+      </c>
+      <c r="B349" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>652</v>
+      </c>
+      <c r="B350" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>653</v>
+      </c>
+      <c r="B351" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>655</v>
+      </c>
+      <c r="B352" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>657</v>
+      </c>
+      <c r="B353" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>658</v>
+      </c>
+      <c r="B354" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>
